--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1000000/Output_18_28.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1000000/Output_18_28.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1643135.778857233</v>
+        <v>1640705.127575875</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>10698272.98268874</v>
+        <v>10698272.98268873</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.4937673433</v>
+        <v>603248.4937673435</v>
       </c>
     </row>
     <row r="9">
@@ -1367,25 +1367,25 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>240.6622947005098</v>
+        <v>341.1569118905546</v>
       </c>
       <c r="C11" t="n">
-        <v>323.6959619980817</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>313.1061118477571</v>
+        <v>313.1061118477569</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>340.3534402993358</v>
       </c>
       <c r="F11" t="n">
-        <v>365.2991159687855</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>369.3447958805276</v>
+        <v>272.8308074748885</v>
       </c>
       <c r="H11" t="n">
-        <v>253.0308346143946</v>
+        <v>253.0308346143945</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1418,25 +1418,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>67.61083201524997</v>
+        <v>67.61083201524985</v>
       </c>
       <c r="T11" t="n">
-        <v>162.3410403666943</v>
+        <v>162.3410403666941</v>
       </c>
       <c r="U11" t="n">
-        <v>209.4182421859761</v>
+        <v>209.418242185976</v>
       </c>
       <c r="V11" t="n">
-        <v>286.175328697209</v>
+        <v>286.1753286972089</v>
       </c>
       <c r="W11" t="n">
-        <v>307.6640389444871</v>
+        <v>307.664038944487</v>
       </c>
       <c r="X11" t="n">
-        <v>328.1541709055431</v>
+        <v>328.154170905543</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>344.6610088831276</v>
       </c>
     </row>
     <row r="12">
@@ -1467,7 +1467,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I12" t="n">
-        <v>18.81721868247721</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1525,28 +1525,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>138.2550504090114</v>
+        <v>138.2550504090113</v>
       </c>
       <c r="C13" t="n">
-        <v>125.669891325702</v>
+        <v>125.6698913257018</v>
       </c>
       <c r="D13" t="n">
-        <v>107.0385432452865</v>
+        <v>107.0385432452864</v>
       </c>
       <c r="E13" t="n">
-        <v>104.8570328736433</v>
+        <v>104.8570328736432</v>
       </c>
       <c r="F13" t="n">
-        <v>103.8441182500054</v>
+        <v>103.8441182500053</v>
       </c>
       <c r="G13" t="n">
-        <v>124.4488784861024</v>
+        <v>98.92939386132919</v>
       </c>
       <c r="H13" t="n">
-        <v>21.83573827234641</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>54.77549063691222</v>
+        <v>54.7754906369121</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,28 +1573,28 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>47.35522289712132</v>
       </c>
       <c r="S13" t="n">
-        <v>148.192095558516</v>
+        <v>148.1920955585159</v>
       </c>
       <c r="T13" t="n">
-        <v>177.9720195032433</v>
+        <v>177.9720195032432</v>
       </c>
       <c r="U13" t="n">
-        <v>244.634908432687</v>
+        <v>244.6349084326869</v>
       </c>
       <c r="V13" t="n">
-        <v>210.5607135509021</v>
+        <v>210.560713550902</v>
       </c>
       <c r="W13" t="n">
-        <v>244.9460685636651</v>
+        <v>244.946068563665</v>
       </c>
       <c r="X13" t="n">
-        <v>184.1327256161113</v>
+        <v>184.1327256161111</v>
       </c>
       <c r="Y13" t="n">
-        <v>177.0077235791689</v>
+        <v>177.0077235791688</v>
       </c>
     </row>
     <row r="14">
@@ -1604,25 +1604,25 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>341.1569118905546</v>
       </c>
       <c r="C14" t="n">
-        <v>323.6959619980817</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>313.1061118477571</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>340.3534402993359</v>
+        <v>340.3534402993358</v>
       </c>
       <c r="F14" t="n">
-        <v>365.2991159687855</v>
+        <v>365.2991159687854</v>
       </c>
       <c r="G14" t="n">
-        <v>369.3447958805276</v>
+        <v>369.3447958805274</v>
       </c>
       <c r="H14" t="n">
-        <v>183.9535510921795</v>
+        <v>253.0308346143945</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1655,25 +1655,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>67.61083201524987</v>
       </c>
       <c r="T14" t="n">
         <v>162.3410403666942</v>
       </c>
       <c r="U14" t="n">
-        <v>209.4182421859761</v>
+        <v>209.418242185976</v>
       </c>
       <c r="V14" t="n">
-        <v>286.175328697209</v>
+        <v>286.1753286972089</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>158.9570464178195</v>
       </c>
       <c r="X14" t="n">
-        <v>328.1541709055431</v>
+        <v>328.154170905543</v>
       </c>
       <c r="Y14" t="n">
-        <v>344.6610088831277</v>
+        <v>344.6610088831276</v>
       </c>
     </row>
     <row r="15">
@@ -1701,10 +1701,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H15" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I15" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1731,7 +1731,7 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S15" t="n">
         <v>128.1435076414547</v>
@@ -1762,28 +1762,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>138.2550504090114</v>
+        <v>138.2550504090113</v>
       </c>
       <c r="C16" t="n">
-        <v>125.6698913257019</v>
+        <v>125.6698913257018</v>
       </c>
       <c r="D16" t="n">
-        <v>107.0385432452864</v>
+        <v>82.1850917291236</v>
       </c>
       <c r="E16" t="n">
         <v>104.8570328736432</v>
       </c>
       <c r="F16" t="n">
-        <v>103.8441182500053</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>124.4488784861023</v>
+        <v>124.4488784861022</v>
       </c>
       <c r="H16" t="n">
-        <v>103.1780851413949</v>
+        <v>103.1780851413948</v>
       </c>
       <c r="I16" t="n">
-        <v>54.77549063691217</v>
+        <v>54.77549063691212</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,28 +1810,28 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>47.35522289712141</v>
+        <v>47.35522289712134</v>
       </c>
       <c r="S16" t="n">
-        <v>19.4945257923466</v>
+        <v>148.1920955585159</v>
       </c>
       <c r="T16" t="n">
-        <v>177.9720195032433</v>
+        <v>177.9720195032432</v>
       </c>
       <c r="U16" t="n">
-        <v>244.634908432687</v>
+        <v>244.6349084326869</v>
       </c>
       <c r="V16" t="n">
-        <v>210.5607135509021</v>
+        <v>210.560713550902</v>
       </c>
       <c r="W16" t="n">
-        <v>244.9460685636651</v>
+        <v>244.946068563665</v>
       </c>
       <c r="X16" t="n">
-        <v>184.1327256161112</v>
+        <v>184.1327256161111</v>
       </c>
       <c r="Y16" t="n">
-        <v>177.0077235791689</v>
+        <v>177.0077235791688</v>
       </c>
     </row>
     <row r="17">
@@ -1841,25 +1841,25 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>313.1241297879596</v>
+        <v>313.1241297879597</v>
       </c>
       <c r="C17" t="n">
-        <v>295.6631798954866</v>
+        <v>295.6631798954867</v>
       </c>
       <c r="D17" t="n">
-        <v>285.073329745162</v>
+        <v>285.0733297451621</v>
       </c>
       <c r="E17" t="n">
-        <v>0</v>
+        <v>312.3206581967409</v>
       </c>
       <c r="F17" t="n">
-        <v>337.2663338661905</v>
+        <v>285.5282307079461</v>
       </c>
       <c r="G17" t="n">
-        <v>341.3120137779325</v>
+        <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>224.9980525117995</v>
+        <v>224.9980525117996</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1892,13 +1892,13 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>39.57804991265493</v>
       </c>
       <c r="T17" t="n">
-        <v>93.15684943731853</v>
+        <v>134.3082582640993</v>
       </c>
       <c r="U17" t="n">
-        <v>181.385460083381</v>
+        <v>181.3854600833811</v>
       </c>
       <c r="V17" t="n">
         <v>258.142546594614</v>
@@ -1907,7 +1907,7 @@
         <v>279.6312568418921</v>
       </c>
       <c r="X17" t="n">
-        <v>300.1213888029481</v>
+        <v>300.1213888029482</v>
       </c>
       <c r="Y17" t="n">
         <v>316.6282267805327</v>
@@ -1941,7 +1941,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I18" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247721</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -2002,25 +2002,25 @@
         <v>110.2222683064164</v>
       </c>
       <c r="C19" t="n">
-        <v>97.63710922310689</v>
+        <v>97.63710922310695</v>
       </c>
       <c r="D19" t="n">
-        <v>79.00576114269141</v>
+        <v>79.00576114269147</v>
       </c>
       <c r="E19" t="n">
-        <v>76.82425077104823</v>
+        <v>76.82425077104828</v>
       </c>
       <c r="F19" t="n">
-        <v>75.8113361474103</v>
+        <v>75.81133614741036</v>
       </c>
       <c r="G19" t="n">
-        <v>96.41609638350728</v>
+        <v>96.41609638350734</v>
       </c>
       <c r="H19" t="n">
-        <v>75.14530303879984</v>
+        <v>75.1453030387999</v>
       </c>
       <c r="I19" t="n">
-        <v>26.74270853431715</v>
+        <v>26.74270853431721</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2047,7 +2047,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>19.32244079452639</v>
+        <v>19.32244079452644</v>
       </c>
       <c r="S19" t="n">
         <v>120.159313455921</v>
@@ -2056,7 +2056,7 @@
         <v>149.9392374006483</v>
       </c>
       <c r="U19" t="n">
-        <v>216.6021263300919</v>
+        <v>216.602126330092</v>
       </c>
       <c r="V19" t="n">
         <v>182.5279314483071</v>
@@ -2065,7 +2065,7 @@
         <v>216.9132864610701</v>
       </c>
       <c r="X19" t="n">
-        <v>156.0999435135162</v>
+        <v>156.0999435135163</v>
       </c>
       <c r="Y19" t="n">
         <v>148.9749414765739</v>
@@ -2078,25 +2078,25 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>313.1241297879596</v>
+        <v>313.1241297879597</v>
       </c>
       <c r="C20" t="n">
-        <v>295.6631798954866</v>
+        <v>295.6631798954867</v>
       </c>
       <c r="D20" t="n">
-        <v>285.073329745162</v>
+        <v>233.3352265869177</v>
       </c>
       <c r="E20" t="n">
         <v>312.3206581967409</v>
       </c>
       <c r="F20" t="n">
-        <v>337.2663338661905</v>
+        <v>337.2663338661906</v>
       </c>
       <c r="G20" t="n">
-        <v>341.3120137779325</v>
+        <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>224.9980525117995</v>
+        <v>224.9980525117996</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2129,13 +2129,13 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>0</v>
+        <v>39.57804991265496</v>
       </c>
       <c r="T20" t="n">
-        <v>134.3082582640992</v>
+        <v>134.3082582640993</v>
       </c>
       <c r="U20" t="n">
-        <v>144.5416198403931</v>
+        <v>181.3854600833811</v>
       </c>
       <c r="V20" t="n">
         <v>258.142546594614</v>
@@ -2144,10 +2144,10 @@
         <v>279.6312568418921</v>
       </c>
       <c r="X20" t="n">
-        <v>300.1213888029481</v>
+        <v>300.1213888029482</v>
       </c>
       <c r="Y20" t="n">
-        <v>0</v>
+        <v>316.6282267805327</v>
       </c>
     </row>
     <row r="21">
@@ -2175,10 +2175,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H21" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I21" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2205,7 +2205,7 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S21" t="n">
         <v>128.1435076414547</v>
@@ -2239,25 +2239,25 @@
         <v>110.2222683064164</v>
       </c>
       <c r="C22" t="n">
-        <v>97.63710922310689</v>
+        <v>97.63710922310695</v>
       </c>
       <c r="D22" t="n">
-        <v>79.00576114269141</v>
+        <v>79.00576114269147</v>
       </c>
       <c r="E22" t="n">
-        <v>76.82425077104823</v>
+        <v>76.82425077104828</v>
       </c>
       <c r="F22" t="n">
-        <v>75.8113361474103</v>
+        <v>75.81133614741036</v>
       </c>
       <c r="G22" t="n">
-        <v>96.41609638350728</v>
+        <v>96.41609638350734</v>
       </c>
       <c r="H22" t="n">
-        <v>75.14530303879984</v>
+        <v>75.1453030387999</v>
       </c>
       <c r="I22" t="n">
-        <v>26.74270853431715</v>
+        <v>26.74270853431722</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2284,7 +2284,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>19.32244079452639</v>
+        <v>19.32244079452646</v>
       </c>
       <c r="S22" t="n">
         <v>120.159313455921</v>
@@ -2293,7 +2293,7 @@
         <v>149.9392374006483</v>
       </c>
       <c r="U22" t="n">
-        <v>216.6021263300919</v>
+        <v>216.602126330092</v>
       </c>
       <c r="V22" t="n">
         <v>182.5279314483071</v>
@@ -2302,7 +2302,7 @@
         <v>216.9132864610701</v>
       </c>
       <c r="X22" t="n">
-        <v>156.0999435135162</v>
+        <v>156.0999435135163</v>
       </c>
       <c r="Y22" t="n">
         <v>148.9749414765739</v>
@@ -2366,7 +2366,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>39.57804991265499</v>
+        <v>39.57804991265496</v>
       </c>
       <c r="T23" t="n">
         <v>134.3082582640993</v>
@@ -2412,10 +2412,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H24" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I24" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247662</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2442,7 +2442,7 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S24" t="n">
         <v>128.1435076414547</v>
@@ -2476,25 +2476,25 @@
         <v>110.2222683064164</v>
       </c>
       <c r="C25" t="n">
-        <v>97.63710922310698</v>
+        <v>97.63710922310695</v>
       </c>
       <c r="D25" t="n">
-        <v>79.0057611426915</v>
+        <v>79.00576114269147</v>
       </c>
       <c r="E25" t="n">
-        <v>76.82425077104831</v>
+        <v>76.82425077104828</v>
       </c>
       <c r="F25" t="n">
-        <v>75.81133614741039</v>
+        <v>75.81133614741036</v>
       </c>
       <c r="G25" t="n">
-        <v>96.41609638350737</v>
+        <v>96.41609638350734</v>
       </c>
       <c r="H25" t="n">
-        <v>75.14530303879992</v>
+        <v>75.1453030387999</v>
       </c>
       <c r="I25" t="n">
-        <v>26.74270853431724</v>
+        <v>26.74270853431722</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2521,7 +2521,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>19.32244079452647</v>
+        <v>19.32244079452646</v>
       </c>
       <c r="S25" t="n">
         <v>120.159313455921</v>
@@ -2555,19 +2555,19 @@
         <v>335.758705044888</v>
       </c>
       <c r="C26" t="n">
-        <v>318.2977551524149</v>
+        <v>318.297755152415</v>
       </c>
       <c r="D26" t="n">
-        <v>307.7079050020903</v>
+        <v>307.7079050020904</v>
       </c>
       <c r="E26" t="n">
         <v>334.9552334536692</v>
       </c>
       <c r="F26" t="n">
-        <v>359.9009091231188</v>
+        <v>359.9009091231189</v>
       </c>
       <c r="G26" t="n">
-        <v>363.9465890348608</v>
+        <v>363.9465890348609</v>
       </c>
       <c r="H26" t="n">
         <v>247.6326277687279</v>
@@ -2603,7 +2603,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>62.21262516958323</v>
+        <v>62.21262516958326</v>
       </c>
       <c r="T26" t="n">
         <v>156.9428335210276</v>
@@ -2615,10 +2615,10 @@
         <v>280.7771218515423</v>
       </c>
       <c r="W26" t="n">
-        <v>302.2658320988204</v>
+        <v>302.2658320988205</v>
       </c>
       <c r="X26" t="n">
-        <v>322.7559640598764</v>
+        <v>322.7559640598765</v>
       </c>
       <c r="Y26" t="n">
         <v>339.262802037461</v>
@@ -2679,7 +2679,7 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>0.1429098734089393</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S27" t="n">
         <v>128.1435076414547</v>
@@ -2713,25 +2713,25 @@
         <v>132.8568435633447</v>
       </c>
       <c r="C28" t="n">
-        <v>120.2716844800352</v>
+        <v>120.2716844800353</v>
       </c>
       <c r="D28" t="n">
-        <v>101.6403363996197</v>
+        <v>101.6403363996198</v>
       </c>
       <c r="E28" t="n">
-        <v>99.45882602797656</v>
+        <v>99.4588260279766</v>
       </c>
       <c r="F28" t="n">
-        <v>98.44591140433937</v>
+        <v>98.44591140433867</v>
       </c>
       <c r="G28" t="n">
-        <v>119.0506716404356</v>
+        <v>119.0506716404357</v>
       </c>
       <c r="H28" t="n">
-        <v>97.77987829572817</v>
+        <v>97.77987829572821</v>
       </c>
       <c r="I28" t="n">
-        <v>49.3772837912455</v>
+        <v>49.37728379124554</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,7 +2758,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>41.95701605145473</v>
+        <v>41.95701605145479</v>
       </c>
       <c r="S28" t="n">
         <v>142.7938887128493</v>
@@ -2776,7 +2776,7 @@
         <v>239.5478617179984</v>
       </c>
       <c r="X28" t="n">
-        <v>178.7345187704445</v>
+        <v>178.7345187704446</v>
       </c>
       <c r="Y28" t="n">
         <v>171.6095167335022</v>
@@ -2840,7 +2840,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>62.21262516958326</v>
+        <v>62.21262516958329</v>
       </c>
       <c r="T29" t="n">
         <v>156.9428335210276</v>
@@ -2858,7 +2858,7 @@
         <v>322.7559640598765</v>
       </c>
       <c r="Y29" t="n">
-        <v>339.262802037461</v>
+        <v>339.2628020374607</v>
       </c>
     </row>
     <row r="30">
@@ -2950,25 +2950,25 @@
         <v>132.8568435633447</v>
       </c>
       <c r="C31" t="n">
-        <v>120.2716844800352</v>
+        <v>120.2716844800353</v>
       </c>
       <c r="D31" t="n">
         <v>101.6403363996198</v>
       </c>
       <c r="E31" t="n">
-        <v>99.45882602797658</v>
+        <v>99.45882602797661</v>
       </c>
       <c r="F31" t="n">
-        <v>98.44591140433866</v>
+        <v>98.44591140433869</v>
       </c>
       <c r="G31" t="n">
-        <v>119.0506716404356</v>
+        <v>119.0506716404357</v>
       </c>
       <c r="H31" t="n">
-        <v>97.7798782957282</v>
+        <v>97.77987829572822</v>
       </c>
       <c r="I31" t="n">
-        <v>49.37728379124552</v>
+        <v>49.37728379124555</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,7 +2995,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>41.95701605145476</v>
+        <v>41.95701605145479</v>
       </c>
       <c r="S31" t="n">
         <v>142.7938887128493</v>
@@ -3026,25 +3026,25 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>335.7587050448881</v>
+        <v>335.758705044888</v>
       </c>
       <c r="C32" t="n">
         <v>318.297755152415</v>
       </c>
       <c r="D32" t="n">
-        <v>307.7079050020905</v>
+        <v>307.7079050020903</v>
       </c>
       <c r="E32" t="n">
-        <v>334.9552334536693</v>
+        <v>334.9552334536692</v>
       </c>
       <c r="F32" t="n">
-        <v>359.9009091231189</v>
+        <v>359.9009091231188</v>
       </c>
       <c r="G32" t="n">
-        <v>363.9465890348609</v>
+        <v>363.9465890348608</v>
       </c>
       <c r="H32" t="n">
-        <v>247.632627768728</v>
+        <v>247.6326277687279</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -3077,25 +3077,25 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>62.21262516958332</v>
+        <v>62.21262516958325</v>
       </c>
       <c r="T32" t="n">
-        <v>156.9428335210277</v>
+        <v>156.9428335210276</v>
       </c>
       <c r="U32" t="n">
         <v>204.0200353403094</v>
       </c>
       <c r="V32" t="n">
-        <v>280.7771218515424</v>
+        <v>280.7771218515423</v>
       </c>
       <c r="W32" t="n">
-        <v>302.2658320988205</v>
+        <v>302.2658320988204</v>
       </c>
       <c r="X32" t="n">
-        <v>322.7559640598765</v>
+        <v>322.7559640598764</v>
       </c>
       <c r="Y32" t="n">
-        <v>339.2628020374611</v>
+        <v>339.262802037461</v>
       </c>
     </row>
     <row r="33">
@@ -3123,10 +3123,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H33" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I33" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3153,7 +3153,7 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>0.1429098734089393</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S33" t="n">
         <v>128.1435076414547</v>
@@ -3184,28 +3184,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>132.8568435633448</v>
+        <v>132.8568435633447</v>
       </c>
       <c r="C34" t="n">
-        <v>120.2716844800353</v>
+        <v>120.2716844800352</v>
       </c>
       <c r="D34" t="n">
         <v>101.6403363996198</v>
       </c>
       <c r="E34" t="n">
-        <v>99.45882602797666</v>
+        <v>99.45882602797658</v>
       </c>
       <c r="F34" t="n">
-        <v>98.44591140433873</v>
+        <v>98.44591140433866</v>
       </c>
       <c r="G34" t="n">
-        <v>119.0506716404357</v>
+        <v>119.0506716404356</v>
       </c>
       <c r="H34" t="n">
-        <v>97.77987829572827</v>
+        <v>97.77987829572881</v>
       </c>
       <c r="I34" t="n">
-        <v>49.3772837912456</v>
+        <v>49.37728379124551</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,28 +3232,28 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>41.95701605145484</v>
+        <v>41.95701605145474</v>
       </c>
       <c r="S34" t="n">
-        <v>142.7938887128494</v>
+        <v>142.7938887128493</v>
       </c>
       <c r="T34" t="n">
-        <v>172.5738126575767</v>
+        <v>172.5738126575766</v>
       </c>
       <c r="U34" t="n">
         <v>239.2367015870203</v>
       </c>
       <c r="V34" t="n">
-        <v>205.1625067052355</v>
+        <v>205.1625067052354</v>
       </c>
       <c r="W34" t="n">
-        <v>239.5478617179985</v>
+        <v>239.5478617179984</v>
       </c>
       <c r="X34" t="n">
-        <v>178.7345187704447</v>
+        <v>178.7345187704446</v>
       </c>
       <c r="Y34" t="n">
-        <v>171.6095167335023</v>
+        <v>171.6095167335022</v>
       </c>
     </row>
     <row r="35">
@@ -3263,25 +3263,25 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>285.0491214353757</v>
+        <v>285.0491214353756</v>
       </c>
       <c r="C35" t="n">
         <v>267.5881715429026</v>
       </c>
       <c r="D35" t="n">
-        <v>256.9983213925781</v>
+        <v>256.998321392578</v>
       </c>
       <c r="E35" t="n">
-        <v>284.2456498441569</v>
+        <v>284.2456498441568</v>
       </c>
       <c r="F35" t="n">
-        <v>309.1913255136066</v>
+        <v>309.1913255136064</v>
       </c>
       <c r="G35" t="n">
-        <v>313.2370054253486</v>
+        <v>313.2370054253485</v>
       </c>
       <c r="H35" t="n">
-        <v>196.9230441592156</v>
+        <v>196.9230441592155</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -3314,22 +3314,22 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>11.50304156007094</v>
+        <v>11.50304156007088</v>
       </c>
       <c r="T35" t="n">
         <v>106.2332499115152</v>
       </c>
       <c r="U35" t="n">
-        <v>153.3104517307971</v>
+        <v>153.310451730797</v>
       </c>
       <c r="V35" t="n">
-        <v>230.06753824203</v>
+        <v>230.0675382420299</v>
       </c>
       <c r="W35" t="n">
-        <v>251.5562484893081</v>
+        <v>251.556248489308</v>
       </c>
       <c r="X35" t="n">
-        <v>272.0463804503642</v>
+        <v>272.046380450364</v>
       </c>
       <c r="Y35" t="n">
         <v>288.5532184279487</v>
@@ -3421,25 +3421,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>82.14725995383239</v>
+        <v>82.14725995383233</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>69.56210087052287</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>50.93075279010739</v>
       </c>
       <c r="E37" t="n">
-        <v>48.74924241846426</v>
+        <v>48.74924241846421</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>47.73632779482628</v>
       </c>
       <c r="G37" t="n">
-        <v>68.34108803092332</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H37" t="n">
-        <v>47.07029468621587</v>
+        <v>47.07029468621582</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3469,28 +3469,28 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S37" t="n">
-        <v>92.08430510333699</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T37" t="n">
-        <v>219.5489492761692</v>
+        <v>121.8642290480642</v>
       </c>
       <c r="U37" t="n">
-        <v>188.5271179775079</v>
+        <v>239.4866237999591</v>
       </c>
       <c r="V37" t="n">
-        <v>196.659861360116</v>
+        <v>154.452923095723</v>
       </c>
       <c r="W37" t="n">
-        <v>188.8382781084861</v>
+        <v>188.838278108486</v>
       </c>
       <c r="X37" t="n">
         <v>128.0249351609322</v>
       </c>
       <c r="Y37" t="n">
-        <v>120.8999331239899</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="38">
@@ -3503,7 +3503,7 @@
         <v>285.0491214353756</v>
       </c>
       <c r="C38" t="n">
-        <v>267.5881715429025</v>
+        <v>267.5881715429026</v>
       </c>
       <c r="D38" t="n">
         <v>256.998321392578</v>
@@ -3518,7 +3518,7 @@
         <v>313.2370054253485</v>
       </c>
       <c r="H38" t="n">
-        <v>196.9230441592154</v>
+        <v>196.9230441592155</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3551,10 +3551,10 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>11.50304156007083</v>
+        <v>11.50304156007084</v>
       </c>
       <c r="T38" t="n">
-        <v>106.2332499115151</v>
+        <v>106.2332499115152</v>
       </c>
       <c r="U38" t="n">
         <v>153.310451730797</v>
@@ -3569,7 +3569,7 @@
         <v>272.046380450364</v>
       </c>
       <c r="Y38" t="n">
-        <v>288.5532184279485</v>
+        <v>288.5532184279486</v>
       </c>
     </row>
     <row r="39">
@@ -3661,22 +3661,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>69.56210087052281</v>
+        <v>69.56210087052283</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>50.93075279010735</v>
       </c>
       <c r="E40" t="n">
-        <v>48.74924241846415</v>
+        <v>48.74924241846416</v>
       </c>
       <c r="F40" t="n">
-        <v>89.94326605922012</v>
+        <v>98.69583361727771</v>
       </c>
       <c r="G40" t="n">
-        <v>68.3410880309232</v>
+        <v>68.34108803092322</v>
       </c>
       <c r="H40" t="n">
-        <v>47.07029468621576</v>
+        <v>47.07029468621577</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -3706,28 +3706,28 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S40" t="n">
-        <v>92.08430510333687</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T40" t="n">
         <v>121.8642290480642</v>
       </c>
       <c r="U40" t="n">
-        <v>188.5271179775078</v>
+        <v>188.5271179775079</v>
       </c>
       <c r="V40" t="n">
-        <v>252.137643323828</v>
+        <v>154.452923095723</v>
       </c>
       <c r="W40" t="n">
         <v>188.838278108486</v>
       </c>
       <c r="X40" t="n">
-        <v>128.0249351609321</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
-        <v>218.5846533520948</v>
+        <v>120.8999331239898</v>
       </c>
     </row>
     <row r="41">
@@ -3740,22 +3740,22 @@
         <v>303.9914759513732</v>
       </c>
       <c r="C41" t="n">
-        <v>193.5903690817286</v>
+        <v>286.5305260589003</v>
       </c>
       <c r="D41" t="n">
-        <v>275.9406759085755</v>
+        <v>275.9406759085756</v>
       </c>
       <c r="E41" t="n">
         <v>303.1880043601544</v>
       </c>
       <c r="F41" t="n">
-        <v>328.133680029604</v>
+        <v>328.1336800296041</v>
       </c>
       <c r="G41" t="n">
-        <v>332.179359941346</v>
+        <v>332.1793599413461</v>
       </c>
       <c r="H41" t="n">
-        <v>215.865398675213</v>
+        <v>215.8653986752131</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -3788,25 +3788,25 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>30.44539607606846</v>
+        <v>30.44539607606852</v>
       </c>
       <c r="T41" t="n">
-        <v>125.1756044275127</v>
+        <v>125.1756044275128</v>
       </c>
       <c r="U41" t="n">
-        <v>0</v>
+        <v>172.2528062467946</v>
       </c>
       <c r="V41" t="n">
-        <v>249.0098927580275</v>
+        <v>249.0098927580276</v>
       </c>
       <c r="W41" t="n">
-        <v>270.4986030053056</v>
+        <v>270.4986030053057</v>
       </c>
       <c r="X41" t="n">
-        <v>290.9887349663616</v>
+        <v>290.9887349663617</v>
       </c>
       <c r="Y41" t="n">
-        <v>307.4955729439462</v>
+        <v>42.30260971997864</v>
       </c>
     </row>
     <row r="42">
@@ -3895,28 +3895,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>101.0896144698299</v>
+        <v>162.3002630548985</v>
       </c>
       <c r="C43" t="n">
-        <v>88.50445538652043</v>
+        <v>88.5044553865205</v>
       </c>
       <c r="D43" t="n">
-        <v>69.87310730610496</v>
+        <v>69.87310730610503</v>
       </c>
       <c r="E43" t="n">
-        <v>128.9022455195313</v>
+        <v>67.69159693446184</v>
       </c>
       <c r="F43" t="n">
-        <v>66.67868231082385</v>
+        <v>66.67868231082392</v>
       </c>
       <c r="G43" t="n">
-        <v>166.0258082590282</v>
+        <v>87.2834425469209</v>
       </c>
       <c r="H43" t="n">
-        <v>66.01264920221338</v>
+        <v>66.01264920221345</v>
       </c>
       <c r="I43" t="n">
-        <v>17.61005469773071</v>
+        <v>17.61005469773078</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,28 +3943,28 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>10.18978695793994</v>
+        <v>10.18978695794002</v>
       </c>
       <c r="S43" t="n">
-        <v>111.0266596193345</v>
+        <v>111.0266596193346</v>
       </c>
       <c r="T43" t="n">
-        <v>140.8065835640618</v>
+        <v>140.8065835640619</v>
       </c>
       <c r="U43" t="n">
-        <v>207.4694724935054</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V43" t="n">
-        <v>173.3952776117206</v>
+        <v>173.3952776117207</v>
       </c>
       <c r="W43" t="n">
-        <v>207.7806326244836</v>
+        <v>207.7806326244837</v>
       </c>
       <c r="X43" t="n">
-        <v>146.9672896769297</v>
+        <v>146.9672896769298</v>
       </c>
       <c r="Y43" t="n">
-        <v>139.8422876399874</v>
+        <v>139.8422876399875</v>
       </c>
     </row>
     <row r="44">
@@ -3974,25 +3974,25 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>38.79851272740639</v>
+        <v>303.9914759513732</v>
       </c>
       <c r="C44" t="n">
-        <v>286.5305260589001</v>
+        <v>286.5305260589003</v>
       </c>
       <c r="D44" t="n">
-        <v>275.9406759085755</v>
+        <v>275.9406759085756</v>
       </c>
       <c r="E44" t="n">
-        <v>303.1880043601544</v>
+        <v>37.99504113618644</v>
       </c>
       <c r="F44" t="n">
-        <v>328.133680029604</v>
+        <v>328.1336800296041</v>
       </c>
       <c r="G44" t="n">
-        <v>332.179359941346</v>
+        <v>332.1793599413461</v>
       </c>
       <c r="H44" t="n">
-        <v>215.865398675213</v>
+        <v>215.8653986752131</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -4025,7 +4025,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>30.44539607606846</v>
+        <v>30.44539607606852</v>
       </c>
       <c r="T44" t="n">
         <v>125.1756044275128</v>
@@ -4034,16 +4034,16 @@
         <v>172.2528062467946</v>
       </c>
       <c r="V44" t="n">
-        <v>249.0098927580275</v>
+        <v>249.0098927580276</v>
       </c>
       <c r="W44" t="n">
-        <v>270.4986030053056</v>
+        <v>270.4986030053057</v>
       </c>
       <c r="X44" t="n">
-        <v>290.9887349663616</v>
+        <v>290.9887349663617</v>
       </c>
       <c r="Y44" t="n">
-        <v>307.4955729439462</v>
+        <v>307.4955729439463</v>
       </c>
     </row>
     <row r="45">
@@ -4074,7 +4074,7 @@
         <v>89.59687541851116</v>
       </c>
       <c r="I45" t="n">
-        <v>18.81721868247745</v>
+        <v>18.8172186824763</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4132,28 +4132,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>101.0896144698299</v>
+        <v>101.08961446983</v>
       </c>
       <c r="C46" t="n">
-        <v>167.2468210986278</v>
+        <v>88.5044553865205</v>
       </c>
       <c r="D46" t="n">
-        <v>69.87310730610496</v>
+        <v>69.87310730610503</v>
       </c>
       <c r="E46" t="n">
-        <v>67.69159693446177</v>
+        <v>67.69159693446184</v>
       </c>
       <c r="F46" t="n">
-        <v>127.8893308958934</v>
+        <v>66.67868231082392</v>
       </c>
       <c r="G46" t="n">
-        <v>87.28344254692082</v>
+        <v>87.2834425469209</v>
       </c>
       <c r="H46" t="n">
-        <v>66.01264920221338</v>
+        <v>66.01264920221345</v>
       </c>
       <c r="I46" t="n">
-        <v>17.61005469773071</v>
+        <v>17.61005469773078</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,28 +4180,28 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>10.18978695793994</v>
+        <v>10.18978695794002</v>
       </c>
       <c r="S46" t="n">
-        <v>111.0266596193345</v>
+        <v>111.0266596193346</v>
       </c>
       <c r="T46" t="n">
-        <v>140.8065835640618</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U46" t="n">
-        <v>207.4694724935054</v>
+        <v>268.6801210785744</v>
       </c>
       <c r="V46" t="n">
-        <v>173.3952776117206</v>
+        <v>173.3952776117207</v>
       </c>
       <c r="W46" t="n">
-        <v>207.7806326244836</v>
+        <v>207.7806326244837</v>
       </c>
       <c r="X46" t="n">
-        <v>146.9672896769297</v>
+        <v>146.9672896769298</v>
       </c>
       <c r="Y46" t="n">
-        <v>139.8422876399874</v>
+        <v>139.8422876399875</v>
       </c>
     </row>
   </sheetData>
@@ -5015,49 +5015,49 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1707.397793512534</v>
+        <v>1257.745645963876</v>
       </c>
       <c r="C11" t="n">
-        <v>1380.432175332653</v>
+        <v>1257.745645963876</v>
       </c>
       <c r="D11" t="n">
-        <v>1064.163375486434</v>
+        <v>941.4768461176568</v>
       </c>
       <c r="E11" t="n">
-        <v>1064.163375486434</v>
+        <v>597.6854922799439</v>
       </c>
       <c r="F11" t="n">
-        <v>695.1743694573573</v>
+        <v>597.6854922799439</v>
       </c>
       <c r="G11" t="n">
-        <v>322.0988180628851</v>
+        <v>322.0988180628848</v>
       </c>
       <c r="H11" t="n">
-        <v>66.5121164321835</v>
+        <v>66.51211643218338</v>
       </c>
       <c r="I11" t="n">
         <v>66.51211643218342</v>
       </c>
       <c r="J11" t="n">
-        <v>255.3912473912088</v>
+        <v>255.3912473912087</v>
       </c>
       <c r="K11" t="n">
-        <v>589.2106210810553</v>
+        <v>589.210621081055</v>
       </c>
       <c r="L11" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M11" t="n">
         <v>1573.776739001388</v>
       </c>
       <c r="N11" t="n">
-        <v>2120.55555606017</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O11" t="n">
-        <v>2623.528026939507</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P11" t="n">
-        <v>3018.302393296685</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q11" t="n">
         <v>3266.588755052368</v>
@@ -5078,13 +5078,13 @@
         <v>2592.731636492878</v>
       </c>
       <c r="W11" t="n">
-        <v>2281.959879983295</v>
+        <v>2281.959879983296</v>
       </c>
       <c r="X11" t="n">
-        <v>1950.491020482745</v>
+        <v>1950.491020482747</v>
       </c>
       <c r="Y11" t="n">
-        <v>1950.491020482745</v>
+        <v>1602.348587267466</v>
       </c>
     </row>
     <row r="12">
@@ -5094,25 +5094,25 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>941.5438544811084</v>
+        <v>941.5438544811082</v>
       </c>
       <c r="C12" t="n">
-        <v>767.0908251999814</v>
+        <v>767.0908251999812</v>
       </c>
       <c r="D12" t="n">
-        <v>618.1564155387301</v>
+        <v>618.15641553873</v>
       </c>
       <c r="E12" t="n">
-        <v>458.9189605332746</v>
+        <v>458.9189605332745</v>
       </c>
       <c r="F12" t="n">
-        <v>312.3844025601596</v>
+        <v>312.3844025601595</v>
       </c>
       <c r="G12" t="n">
-        <v>176.0213023927777</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H12" t="n">
-        <v>85.51940803064525</v>
+        <v>85.51940803064547</v>
       </c>
       <c r="I12" t="n">
         <v>66.51211643218342</v>
@@ -5173,37 +5173,37 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>715.4714023816762</v>
+        <v>667.6378438997372</v>
       </c>
       <c r="C13" t="n">
-        <v>588.5321182143005</v>
+        <v>540.6985597323616</v>
       </c>
       <c r="D13" t="n">
-        <v>480.4123775624959</v>
+        <v>432.5788190805571</v>
       </c>
       <c r="E13" t="n">
-        <v>374.496182740634</v>
+        <v>326.6626242586953</v>
       </c>
       <c r="F13" t="n">
-        <v>269.6031340032548</v>
+        <v>221.7695755213163</v>
       </c>
       <c r="G13" t="n">
-        <v>143.897196138505</v>
+        <v>121.8408948533068</v>
       </c>
       <c r="H13" t="n">
-        <v>121.8408948533069</v>
+        <v>121.8408948533068</v>
       </c>
       <c r="I13" t="n">
         <v>66.51211643218342</v>
       </c>
       <c r="J13" t="n">
-        <v>152.7959093543156</v>
+        <v>152.7959093543157</v>
       </c>
       <c r="K13" t="n">
-        <v>397.9442527783885</v>
+        <v>397.9442527783888</v>
       </c>
       <c r="L13" t="n">
-        <v>755.6652117020813</v>
+        <v>755.6652117020817</v>
       </c>
       <c r="M13" t="n">
         <v>1140.983417776827</v>
@@ -5212,37 +5212,37 @@
         <v>1523.552954957888</v>
       </c>
       <c r="O13" t="n">
-        <v>1864.043714353498</v>
+        <v>1864.043714353499</v>
       </c>
       <c r="P13" t="n">
-        <v>2137.812375262354</v>
+        <v>2137.812375262355</v>
       </c>
       <c r="Q13" t="n">
         <v>2256.583831890066</v>
       </c>
       <c r="R13" t="n">
-        <v>2256.583831890066</v>
+        <v>2208.750273408125</v>
       </c>
       <c r="S13" t="n">
-        <v>2106.894846477423</v>
+        <v>2059.061287995483</v>
       </c>
       <c r="T13" t="n">
-        <v>1927.12512980748</v>
+        <v>1879.29157132554</v>
       </c>
       <c r="U13" t="n">
-        <v>1680.019161693655</v>
+        <v>1632.185603211715</v>
       </c>
       <c r="V13" t="n">
-        <v>1467.331572248299</v>
+        <v>1419.49801376636</v>
       </c>
       <c r="W13" t="n">
-        <v>1219.91130097187</v>
+        <v>1172.07774248993</v>
       </c>
       <c r="X13" t="n">
-        <v>1033.918648834384</v>
+        <v>986.0850903524444</v>
       </c>
       <c r="Y13" t="n">
-        <v>855.1229684513847</v>
+        <v>807.2894099694456</v>
       </c>
     </row>
     <row r="14">
@@ -5252,22 +5252,22 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1981.414113489423</v>
+        <v>1407.954729324146</v>
       </c>
       <c r="C14" t="n">
-        <v>1654.448495309543</v>
+        <v>1407.954729324146</v>
       </c>
       <c r="D14" t="n">
-        <v>1338.179695463323</v>
+        <v>1407.954729324146</v>
       </c>
       <c r="E14" t="n">
-        <v>994.3883416256103</v>
+        <v>1064.163375486433</v>
       </c>
       <c r="F14" t="n">
-        <v>625.399335596534</v>
+        <v>695.1743694573571</v>
       </c>
       <c r="G14" t="n">
-        <v>252.3237842020617</v>
+        <v>322.0988180628849</v>
       </c>
       <c r="H14" t="n">
         <v>66.51211643218342</v>
@@ -5276,25 +5276,25 @@
         <v>66.51211643218342</v>
       </c>
       <c r="J14" t="n">
-        <v>255.3912473912092</v>
+        <v>255.3912473912087</v>
       </c>
       <c r="K14" t="n">
-        <v>589.2106210810562</v>
+        <v>589.2106210810548</v>
       </c>
       <c r="L14" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M14" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N14" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O14" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939507</v>
       </c>
       <c r="P14" t="n">
-        <v>3018.302393296687</v>
+        <v>3018.302393296685</v>
       </c>
       <c r="Q14" t="n">
         <v>3266.588755052368</v>
@@ -5303,25 +5303,25 @@
         <v>3325.605821609171</v>
       </c>
       <c r="S14" t="n">
-        <v>3325.605821609171</v>
+        <v>3257.312051896797</v>
       </c>
       <c r="T14" t="n">
-        <v>3161.624972753924</v>
+        <v>3093.33120304155</v>
       </c>
       <c r="U14" t="n">
-        <v>2950.091394788292</v>
+        <v>2881.797625075918</v>
       </c>
       <c r="V14" t="n">
-        <v>2661.025406205252</v>
+        <v>2592.731636492878</v>
       </c>
       <c r="W14" t="n">
-        <v>2661.025406205252</v>
+        <v>2432.168963343566</v>
       </c>
       <c r="X14" t="n">
-        <v>2329.556546704704</v>
+        <v>2100.700103843017</v>
       </c>
       <c r="Y14" t="n">
-        <v>1981.414113489423</v>
+        <v>1752.557670627737</v>
       </c>
     </row>
     <row r="15">
@@ -5346,28 +5346,28 @@
         <v>312.3844025601599</v>
       </c>
       <c r="G15" t="n">
-        <v>176.0213023927779</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H15" t="n">
-        <v>85.51940803064545</v>
+        <v>85.51940803064548</v>
       </c>
       <c r="I15" t="n">
         <v>66.51211643218342</v>
       </c>
       <c r="J15" t="n">
-        <v>160.1893859228006</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K15" t="n">
-        <v>398.4535849031477</v>
+        <v>398.4535849031478</v>
       </c>
       <c r="L15" t="n">
-        <v>765.1517452158131</v>
+        <v>765.1517452158134</v>
       </c>
       <c r="M15" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N15" t="n">
-        <v>1685.951113992583</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O15" t="n">
         <v>2096.912393410638</v>
@@ -5410,22 +5410,22 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>797.6353891180893</v>
+        <v>667.6378438997367</v>
       </c>
       <c r="C16" t="n">
-        <v>670.6961049507136</v>
+        <v>540.6985597323611</v>
       </c>
       <c r="D16" t="n">
-        <v>562.5763642989091</v>
+        <v>457.6833155615292</v>
       </c>
       <c r="E16" t="n">
-        <v>456.6601694770472</v>
+        <v>351.7671207396673</v>
       </c>
       <c r="F16" t="n">
-        <v>351.7671207396676</v>
+        <v>351.7671207396673</v>
       </c>
       <c r="G16" t="n">
-        <v>226.0611828749178</v>
+        <v>226.0611828749176</v>
       </c>
       <c r="H16" t="n">
         <v>121.8408948533068</v>
@@ -5437,49 +5437,49 @@
         <v>152.7959093543157</v>
       </c>
       <c r="K16" t="n">
-        <v>397.9442527783881</v>
+        <v>397.9442527783888</v>
       </c>
       <c r="L16" t="n">
-        <v>755.6652117020809</v>
+        <v>755.6652117020816</v>
       </c>
       <c r="M16" t="n">
         <v>1140.983417776827</v>
       </c>
       <c r="N16" t="n">
-        <v>1523.552954957888</v>
+        <v>1523.552954957889</v>
       </c>
       <c r="O16" t="n">
-        <v>1864.043714353498</v>
+        <v>1864.043714353499</v>
       </c>
       <c r="P16" t="n">
-        <v>2137.812375262354</v>
+        <v>2137.812375262355</v>
       </c>
       <c r="Q16" t="n">
-        <v>2256.583831890065</v>
+        <v>2256.583831890066</v>
       </c>
       <c r="R16" t="n">
-        <v>2208.750273408124</v>
+        <v>2208.750273408125</v>
       </c>
       <c r="S16" t="n">
-        <v>2189.058833213836</v>
+        <v>2059.061287995483</v>
       </c>
       <c r="T16" t="n">
-        <v>2009.289116543893</v>
+        <v>1879.29157132554</v>
       </c>
       <c r="U16" t="n">
-        <v>1762.183148430068</v>
+        <v>1632.185603211715</v>
       </c>
       <c r="V16" t="n">
-        <v>1549.495558984712</v>
+        <v>1419.498013766359</v>
       </c>
       <c r="W16" t="n">
-        <v>1302.075287708283</v>
+        <v>1172.07774248993</v>
       </c>
       <c r="X16" t="n">
-        <v>1116.082635570797</v>
+        <v>986.0850903524439</v>
       </c>
       <c r="Y16" t="n">
-        <v>937.2869551877977</v>
+        <v>807.2894099694452</v>
       </c>
     </row>
     <row r="17">
@@ -5489,22 +5489,22 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1565.81808592367</v>
+        <v>1484.273178106058</v>
       </c>
       <c r="C17" t="n">
-        <v>1267.168409261562</v>
+        <v>1185.62350144395</v>
       </c>
       <c r="D17" t="n">
-        <v>979.2155509331153</v>
+        <v>897.6706431155037</v>
       </c>
       <c r="E17" t="n">
-        <v>979.2155509331153</v>
+        <v>582.1952307955635</v>
       </c>
       <c r="F17" t="n">
-        <v>638.5424864218118</v>
+        <v>293.7828765451123</v>
       </c>
       <c r="G17" t="n">
-        <v>293.7828765451122</v>
+        <v>293.7828765451123</v>
       </c>
       <c r="H17" t="n">
         <v>66.51211643218342</v>
@@ -5513,19 +5513,19 @@
         <v>66.51211643218342</v>
       </c>
       <c r="J17" t="n">
-        <v>255.3912473912092</v>
+        <v>255.3912473912089</v>
       </c>
       <c r="K17" t="n">
-        <v>589.2106210810557</v>
+        <v>589.2106210810554</v>
       </c>
       <c r="L17" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M17" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N17" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O17" t="n">
         <v>2623.528026939508</v>
@@ -5540,25 +5540,25 @@
         <v>3325.605821609171</v>
       </c>
       <c r="S17" t="n">
-        <v>3325.605821609171</v>
+        <v>3285.62799341457</v>
       </c>
       <c r="T17" t="n">
-        <v>3231.507993894708</v>
+        <v>3149.963086077096</v>
       </c>
       <c r="U17" t="n">
-        <v>3048.290357446848</v>
+        <v>2966.745449629237</v>
       </c>
       <c r="V17" t="n">
-        <v>2787.540310381582</v>
+        <v>2705.99540256397</v>
       </c>
       <c r="W17" t="n">
-        <v>2505.084495389771</v>
+        <v>2423.53958757216</v>
       </c>
       <c r="X17" t="n">
-        <v>2201.931577406996</v>
+        <v>2120.386669589384</v>
       </c>
       <c r="Y17" t="n">
-        <v>1882.105085709488</v>
+        <v>1800.560177891876</v>
       </c>
     </row>
     <row r="18">
@@ -5568,76 +5568,76 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>941.5438544811091</v>
+        <v>941.5438544811084</v>
       </c>
       <c r="C18" t="n">
-        <v>767.0908251999821</v>
+        <v>767.0908251999814</v>
       </c>
       <c r="D18" t="n">
-        <v>618.1564155387309</v>
+        <v>618.1564155387301</v>
       </c>
       <c r="E18" t="n">
-        <v>458.9189605332754</v>
+        <v>458.9189605332746</v>
       </c>
       <c r="F18" t="n">
-        <v>312.3844025601604</v>
+        <v>312.3844025601596</v>
       </c>
       <c r="G18" t="n">
-        <v>176.0213023927789</v>
+        <v>176.0213023927777</v>
       </c>
       <c r="H18" t="n">
-        <v>85.51940803064583</v>
+        <v>85.51940803064525</v>
       </c>
       <c r="I18" t="n">
         <v>66.51211643218342</v>
       </c>
       <c r="J18" t="n">
-        <v>160.189385922801</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K18" t="n">
-        <v>398.4535849031484</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L18" t="n">
-        <v>765.1517452158139</v>
+        <v>765.1517452158132</v>
       </c>
       <c r="M18" t="n">
-        <v>1212.42807043813</v>
+        <v>1212.428070438129</v>
       </c>
       <c r="N18" t="n">
-        <v>1685.951113992584</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O18" t="n">
-        <v>2096.912393410639</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P18" t="n">
-        <v>2407.411984886742</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q18" t="n">
-        <v>2565.053542533342</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R18" t="n">
-        <v>2564.909189125857</v>
+        <v>2564.909189125856</v>
       </c>
       <c r="S18" t="n">
-        <v>2435.471302619337</v>
+        <v>2435.471302619336</v>
       </c>
       <c r="T18" t="n">
-        <v>2242.828302297193</v>
+        <v>2242.828302297192</v>
       </c>
       <c r="U18" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V18" t="n">
-        <v>1779.608347199866</v>
+        <v>1779.608347199865</v>
       </c>
       <c r="W18" t="n">
-        <v>1525.370990471664</v>
+        <v>1525.370990471663</v>
       </c>
       <c r="X18" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y18" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="19">
@@ -5647,25 +5647,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>599.4237984936794</v>
+        <v>599.4237984936799</v>
       </c>
       <c r="C19" t="n">
-        <v>500.8004558440766</v>
+        <v>500.800455844077</v>
       </c>
       <c r="D19" t="n">
-        <v>420.9966567100448</v>
+        <v>420.9966567100452</v>
       </c>
       <c r="E19" t="n">
-        <v>343.3964034059557</v>
+        <v>343.396403405956</v>
       </c>
       <c r="F19" t="n">
-        <v>266.8192961863493</v>
+        <v>266.8192961863496</v>
       </c>
       <c r="G19" t="n">
-        <v>169.4292998393723</v>
+        <v>169.4292998393724</v>
       </c>
       <c r="H19" t="n">
-        <v>93.52495333553408</v>
+        <v>93.52495333553414</v>
       </c>
       <c r="I19" t="n">
         <v>66.51211643218342</v>
@@ -5683,13 +5683,13 @@
         <v>976.3387758760405</v>
       </c>
       <c r="N19" t="n">
-        <v>1323.978917317467</v>
+        <v>1317.747152581905</v>
       </c>
       <c r="O19" t="n">
-        <v>1623.30851623788</v>
+        <v>1617.076751502319</v>
       </c>
       <c r="P19" t="n">
-        <v>1855.91601667154</v>
+        <v>1849.684251935978</v>
       </c>
       <c r="Q19" t="n">
         <v>1933.526312824055</v>
@@ -5704,7 +5704,7 @@
         <v>1641.181876812847</v>
       </c>
       <c r="U19" t="n">
-        <v>1422.391850216794</v>
+        <v>1422.391850216795</v>
       </c>
       <c r="V19" t="n">
         <v>1238.020202289212</v>
@@ -5713,10 +5713,10 @@
         <v>1018.915872530555</v>
       </c>
       <c r="X19" t="n">
-        <v>861.2391619108414</v>
+        <v>861.2391619108419</v>
       </c>
       <c r="Y19" t="n">
-        <v>710.7594230456152</v>
+        <v>710.7594230456157</v>
       </c>
     </row>
     <row r="20">
@@ -5726,22 +5726,22 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1881.29349824361</v>
+        <v>1484.273178106058</v>
       </c>
       <c r="C20" t="n">
-        <v>1582.643821581502</v>
+        <v>1185.62350144395</v>
       </c>
       <c r="D20" t="n">
-        <v>1294.690963253056</v>
+        <v>949.9313533763562</v>
       </c>
       <c r="E20" t="n">
-        <v>979.2155509331152</v>
+        <v>634.4559410564159</v>
       </c>
       <c r="F20" t="n">
-        <v>638.5424864218116</v>
+        <v>293.7828765451123</v>
       </c>
       <c r="G20" t="n">
-        <v>293.7828765451122</v>
+        <v>293.7828765451123</v>
       </c>
       <c r="H20" t="n">
         <v>66.51211643218342</v>
@@ -5750,10 +5750,10 @@
         <v>66.51211643218342</v>
       </c>
       <c r="J20" t="n">
-        <v>255.3912473912092</v>
+        <v>255.3912473912087</v>
       </c>
       <c r="K20" t="n">
-        <v>589.2106210810557</v>
+        <v>589.2106210810562</v>
       </c>
       <c r="L20" t="n">
         <v>1040.244834329465</v>
@@ -5762,7 +5762,7 @@
         <v>1573.776739001389</v>
       </c>
       <c r="N20" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O20" t="n">
         <v>2623.528026939508</v>
@@ -5777,25 +5777,25 @@
         <v>3325.605821609171</v>
       </c>
       <c r="S20" t="n">
-        <v>3325.605821609171</v>
+        <v>3285.62799341457</v>
       </c>
       <c r="T20" t="n">
-        <v>3189.940914271697</v>
+        <v>3149.963086077096</v>
       </c>
       <c r="U20" t="n">
-        <v>3043.93927806928</v>
+        <v>2966.745449629237</v>
       </c>
       <c r="V20" t="n">
-        <v>2783.189231004013</v>
+        <v>2705.99540256397</v>
       </c>
       <c r="W20" t="n">
-        <v>2500.733416012203</v>
+        <v>2423.53958757216</v>
       </c>
       <c r="X20" t="n">
-        <v>2197.580498029427</v>
+        <v>2120.386669589384</v>
       </c>
       <c r="Y20" t="n">
-        <v>2197.580498029427</v>
+        <v>1800.560177891876</v>
       </c>
     </row>
     <row r="21">
@@ -5805,25 +5805,25 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>941.5438544811087</v>
+        <v>941.5438544811072</v>
       </c>
       <c r="C21" t="n">
-        <v>767.0908251999817</v>
+        <v>767.0908251999803</v>
       </c>
       <c r="D21" t="n">
-        <v>618.1564155387305</v>
+        <v>618.1564155387291</v>
       </c>
       <c r="E21" t="n">
-        <v>458.9189605332749</v>
+        <v>458.9189605332735</v>
       </c>
       <c r="F21" t="n">
-        <v>312.3844025601599</v>
+        <v>312.3844025601586</v>
       </c>
       <c r="G21" t="n">
-        <v>176.0213023927779</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H21" t="n">
-        <v>85.51940803064545</v>
+        <v>85.51940803064548</v>
       </c>
       <c r="I21" t="n">
         <v>66.51211643218342</v>
@@ -5835,7 +5835,7 @@
         <v>398.4535849031477</v>
       </c>
       <c r="L21" t="n">
-        <v>765.1517452158131</v>
+        <v>765.151745215813</v>
       </c>
       <c r="M21" t="n">
         <v>1212.428070438129</v>
@@ -5847,34 +5847,34 @@
         <v>2096.912393410638</v>
       </c>
       <c r="P21" t="n">
-        <v>2407.411984886741</v>
+        <v>2407.41198488674</v>
       </c>
       <c r="Q21" t="n">
-        <v>2565.053542533341</v>
+        <v>2565.05354253334</v>
       </c>
       <c r="R21" t="n">
-        <v>2564.909189125856</v>
+        <v>2564.909189125855</v>
       </c>
       <c r="S21" t="n">
-        <v>2435.471302619336</v>
+        <v>2435.471302619335</v>
       </c>
       <c r="T21" t="n">
-        <v>2242.828302297192</v>
+        <v>2242.828302297191</v>
       </c>
       <c r="U21" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431606</v>
       </c>
       <c r="V21" t="n">
-        <v>1779.608347199865</v>
+        <v>1779.608347199864</v>
       </c>
       <c r="W21" t="n">
-        <v>1525.370990471663</v>
+        <v>1525.370990471662</v>
       </c>
       <c r="X21" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.519490266129</v>
       </c>
       <c r="Y21" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501175</v>
       </c>
     </row>
     <row r="22">
@@ -5884,49 +5884,49 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>599.4237984936794</v>
+        <v>599.4237984936799</v>
       </c>
       <c r="C22" t="n">
-        <v>500.8004558440766</v>
+        <v>500.800455844077</v>
       </c>
       <c r="D22" t="n">
-        <v>420.9966567100448</v>
+        <v>420.9966567100452</v>
       </c>
       <c r="E22" t="n">
-        <v>343.3964034059557</v>
+        <v>343.396403405956</v>
       </c>
       <c r="F22" t="n">
-        <v>266.8192961863493</v>
+        <v>266.8192961863496</v>
       </c>
       <c r="G22" t="n">
-        <v>169.4292998393723</v>
+        <v>169.4292998393724</v>
       </c>
       <c r="H22" t="n">
-        <v>93.52495333553408</v>
+        <v>93.52495333553415</v>
       </c>
       <c r="I22" t="n">
         <v>66.51211643218342</v>
       </c>
       <c r="J22" t="n">
-        <v>111.634748879119</v>
+        <v>111.6347488791189</v>
       </c>
       <c r="K22" t="n">
-        <v>315.6219318279954</v>
+        <v>315.6219318279952</v>
       </c>
       <c r="L22" t="n">
         <v>632.1817302764914</v>
       </c>
       <c r="M22" t="n">
-        <v>976.3387758760405</v>
+        <v>976.3387758760404</v>
       </c>
       <c r="N22" t="n">
         <v>1317.747152581905</v>
       </c>
       <c r="O22" t="n">
-        <v>1617.076751502319</v>
+        <v>1623.308516237881</v>
       </c>
       <c r="P22" t="n">
-        <v>1855.91601667154</v>
+        <v>1855.916016671541</v>
       </c>
       <c r="Q22" t="n">
         <v>1933.526312824055</v>
@@ -5941,7 +5941,7 @@
         <v>1641.181876812847</v>
       </c>
       <c r="U22" t="n">
-        <v>1422.391850216794</v>
+        <v>1422.391850216795</v>
       </c>
       <c r="V22" t="n">
         <v>1238.020202289212</v>
@@ -5950,10 +5950,10 @@
         <v>1018.915872530555</v>
       </c>
       <c r="X22" t="n">
-        <v>861.2391619108414</v>
+        <v>861.2391619108419</v>
       </c>
       <c r="Y22" t="n">
-        <v>710.7594230456152</v>
+        <v>710.7594230456157</v>
       </c>
     </row>
     <row r="23">
@@ -5963,76 +5963,76 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>1889.39595375662</v>
+        <v>1889.395953756622</v>
       </c>
       <c r="C23" t="n">
-        <v>1590.746277094512</v>
+        <v>1590.746277094514</v>
       </c>
       <c r="D23" t="n">
-        <v>1302.793418766066</v>
+        <v>1302.793418766067</v>
       </c>
       <c r="E23" t="n">
-        <v>987.3180064461258</v>
+        <v>987.3180064461269</v>
       </c>
       <c r="F23" t="n">
-        <v>646.6449419348223</v>
+        <v>646.6449419348232</v>
       </c>
       <c r="G23" t="n">
         <v>301.8853320581236</v>
       </c>
       <c r="H23" t="n">
-        <v>74.6145719451947</v>
+        <v>74.61457194519468</v>
       </c>
       <c r="I23" t="n">
-        <v>74.6145719451947</v>
+        <v>74.61457194519468</v>
       </c>
       <c r="J23" t="n">
-        <v>263.4937029042201</v>
+        <v>341.9333019520054</v>
       </c>
       <c r="K23" t="n">
-        <v>597.3130765940666</v>
+        <v>675.7526756418517</v>
       </c>
       <c r="L23" t="n">
-        <v>1445.367609980028</v>
+        <v>1126.78688889026</v>
       </c>
       <c r="M23" t="n">
-        <v>1978.899514651952</v>
+        <v>1660.318793562185</v>
       </c>
       <c r="N23" t="n">
-        <v>2525.678331710735</v>
+        <v>2207.097610620967</v>
       </c>
       <c r="O23" t="n">
-        <v>3028.650802590072</v>
+        <v>2710.070081500304</v>
       </c>
       <c r="P23" t="n">
-        <v>3423.42516894725</v>
+        <v>3423.425168947249</v>
       </c>
       <c r="Q23" t="n">
         <v>3671.711530702932</v>
       </c>
       <c r="R23" t="n">
-        <v>3730.728597259735</v>
+        <v>3730.728597259734</v>
       </c>
       <c r="S23" t="n">
-        <v>3690.750769065133</v>
+        <v>3690.750769065134</v>
       </c>
       <c r="T23" t="n">
         <v>3555.085861727659</v>
       </c>
       <c r="U23" t="n">
-        <v>3371.868225279799</v>
+        <v>3371.8682252798</v>
       </c>
       <c r="V23" t="n">
-        <v>3111.118178214532</v>
+        <v>3111.118178214533</v>
       </c>
       <c r="W23" t="n">
-        <v>2828.662363222722</v>
+        <v>2828.662363222723</v>
       </c>
       <c r="X23" t="n">
-        <v>2525.509445239945</v>
+        <v>2525.509445239947</v>
       </c>
       <c r="Y23" t="n">
-        <v>2205.682953542438</v>
+        <v>2205.682953542439</v>
       </c>
     </row>
     <row r="24">
@@ -6042,76 +6042,76 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>949.6463099941197</v>
+        <v>949.6463099941191</v>
       </c>
       <c r="C24" t="n">
-        <v>775.1932807129928</v>
+        <v>775.1932807129921</v>
       </c>
       <c r="D24" t="n">
-        <v>626.2588710517416</v>
+        <v>626.2588710517408</v>
       </c>
       <c r="E24" t="n">
-        <v>467.021416046286</v>
+        <v>467.0214160462853</v>
       </c>
       <c r="F24" t="n">
-        <v>320.4868580731711</v>
+        <v>320.4868580731703</v>
       </c>
       <c r="G24" t="n">
-        <v>184.1237579057892</v>
+        <v>184.1237579057884</v>
       </c>
       <c r="H24" t="n">
-        <v>93.62186354365674</v>
+        <v>93.62186354365592</v>
       </c>
       <c r="I24" t="n">
-        <v>74.6145719451947</v>
+        <v>74.61457194519468</v>
       </c>
       <c r="J24" t="n">
-        <v>168.2918414358121</v>
+        <v>168.291841435812</v>
       </c>
       <c r="K24" t="n">
-        <v>406.5560404161592</v>
+        <v>406.556040416159</v>
       </c>
       <c r="L24" t="n">
-        <v>773.2542007288247</v>
+        <v>773.2542007288243</v>
       </c>
       <c r="M24" t="n">
-        <v>1220.530525951141</v>
+        <v>1220.53052595114</v>
       </c>
       <c r="N24" t="n">
         <v>1694.053569505595</v>
       </c>
       <c r="O24" t="n">
-        <v>2105.01484892365</v>
+        <v>2105.014848923649</v>
       </c>
       <c r="P24" t="n">
-        <v>2415.514440399753</v>
+        <v>2415.514440399752</v>
       </c>
       <c r="Q24" t="n">
-        <v>2573.155998046353</v>
+        <v>2573.155998046352</v>
       </c>
       <c r="R24" t="n">
-        <v>2573.011644638868</v>
+        <v>2573.011644638867</v>
       </c>
       <c r="S24" t="n">
-        <v>2443.573758132348</v>
+        <v>2443.573758132347</v>
       </c>
       <c r="T24" t="n">
         <v>2250.930757810203</v>
       </c>
       <c r="U24" t="n">
-        <v>2022.862910944619</v>
+        <v>2022.862910944618</v>
       </c>
       <c r="V24" t="n">
-        <v>1787.710802712876</v>
+        <v>1787.710802712875</v>
       </c>
       <c r="W24" t="n">
-        <v>1533.473445984675</v>
+        <v>1533.473445984674</v>
       </c>
       <c r="X24" t="n">
-        <v>1325.621945779142</v>
+        <v>1325.621945779141</v>
       </c>
       <c r="Y24" t="n">
-        <v>1117.861647014188</v>
+        <v>1117.861647014187</v>
       </c>
     </row>
     <row r="25">
@@ -6121,46 +6121,46 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>607.5262540066914</v>
+        <v>607.5262540066913</v>
       </c>
       <c r="C25" t="n">
-        <v>508.9029113570884</v>
+        <v>508.9029113570882</v>
       </c>
       <c r="D25" t="n">
-        <v>429.0991122230566</v>
+        <v>429.0991122230564</v>
       </c>
       <c r="E25" t="n">
-        <v>351.4988589189674</v>
+        <v>351.4988589189672</v>
       </c>
       <c r="F25" t="n">
-        <v>274.9217516993609</v>
+        <v>274.9217516993608</v>
       </c>
       <c r="G25" t="n">
-        <v>177.5317553523838</v>
+        <v>177.5317553523837</v>
       </c>
       <c r="H25" t="n">
         <v>101.6274088485454</v>
       </c>
       <c r="I25" t="n">
-        <v>74.6145719451947</v>
+        <v>74.61457194519468</v>
       </c>
       <c r="J25" t="n">
-        <v>119.7372043921303</v>
+        <v>119.7372043921302</v>
       </c>
       <c r="K25" t="n">
-        <v>329.956152076569</v>
+        <v>323.7243873410065</v>
       </c>
       <c r="L25" t="n">
-        <v>646.5159505250651</v>
+        <v>640.2841857895027</v>
       </c>
       <c r="M25" t="n">
-        <v>990.6729961246142</v>
+        <v>990.6729961246147</v>
       </c>
       <c r="N25" t="n">
         <v>1332.081372830479</v>
       </c>
       <c r="O25" t="n">
-        <v>1631.410971750892</v>
+        <v>1631.410971750893</v>
       </c>
       <c r="P25" t="n">
         <v>1864.018472184552</v>
@@ -6187,10 +6187,10 @@
         <v>1027.018328043567</v>
       </c>
       <c r="X25" t="n">
-        <v>869.3416174238533</v>
+        <v>869.3416174238532</v>
       </c>
       <c r="Y25" t="n">
-        <v>718.8618785586272</v>
+        <v>718.861878558627</v>
       </c>
     </row>
     <row r="26">
@@ -6215,7 +6215,7 @@
         <v>698.9037015467798</v>
       </c>
       <c r="G26" t="n">
-        <v>331.2808843398486</v>
+        <v>331.2808843398487</v>
       </c>
       <c r="H26" t="n">
         <v>81.14691689668916</v>
@@ -6224,28 +6224,28 @@
         <v>81.14691689668916</v>
       </c>
       <c r="J26" t="n">
-        <v>270.0260478557145</v>
+        <v>437.4316968760676</v>
       </c>
       <c r="K26" t="n">
-        <v>924.7493799910139</v>
+        <v>1092.155029011367</v>
       </c>
       <c r="L26" t="n">
-        <v>1771.984857554752</v>
+        <v>1543.189242259775</v>
       </c>
       <c r="M26" t="n">
-        <v>2305.516762226676</v>
+        <v>2076.7211469317</v>
       </c>
       <c r="N26" t="n">
-        <v>2852.295579285459</v>
+        <v>2623.499963990482</v>
       </c>
       <c r="O26" t="n">
-        <v>3355.268050164796</v>
+        <v>3290.208794490543</v>
       </c>
       <c r="P26" t="n">
-        <v>3750.042416521973</v>
+        <v>3684.983160847721</v>
       </c>
       <c r="Q26" t="n">
-        <v>3998.328778277656</v>
+        <v>3933.269522603403</v>
       </c>
       <c r="R26" t="n">
         <v>4057.345844834458</v>
@@ -6315,16 +6315,16 @@
         <v>1227.062870902635</v>
       </c>
       <c r="N27" t="n">
-        <v>1700.585914457089</v>
+        <v>1700.58591445709</v>
       </c>
       <c r="O27" t="n">
         <v>2111.547193875144</v>
       </c>
       <c r="P27" t="n">
-        <v>2422.046785351246</v>
+        <v>2422.046785351247</v>
       </c>
       <c r="Q27" t="n">
-        <v>2579.688342997846</v>
+        <v>2579.688342997847</v>
       </c>
       <c r="R27" t="n">
         <v>2579.543989590362</v>
@@ -6361,19 +6361,19 @@
         <v>774.1010502698005</v>
       </c>
       <c r="C28" t="n">
-        <v>652.6145002899669</v>
+        <v>652.6145002899668</v>
       </c>
       <c r="D28" t="n">
-        <v>549.9474938257046</v>
+        <v>549.9474938257044</v>
       </c>
       <c r="E28" t="n">
-        <v>449.4840331913848</v>
+        <v>449.4840331913846</v>
       </c>
       <c r="F28" t="n">
-        <v>350.0437186415471</v>
+        <v>350.0437186415475</v>
       </c>
       <c r="G28" t="n">
-        <v>229.7905149643394</v>
+        <v>229.7905149643398</v>
       </c>
       <c r="H28" t="n">
         <v>131.0229611302705</v>
@@ -6382,13 +6382,13 @@
         <v>81.14691689668916</v>
       </c>
       <c r="J28" t="n">
-        <v>172.7749345960316</v>
+        <v>172.7749345960312</v>
       </c>
       <c r="K28" t="n">
-        <v>423.2675027973146</v>
+        <v>423.2675027973142</v>
       </c>
       <c r="L28" t="n">
-        <v>786.3326864982173</v>
+        <v>786.332686498217</v>
       </c>
       <c r="M28" t="n">
         <v>1176.995117350173</v>
@@ -6418,7 +6418,7 @@
         <v>1711.385138644069</v>
       </c>
       <c r="V28" t="n">
-        <v>1504.150283386256</v>
+        <v>1504.150283386255</v>
       </c>
       <c r="W28" t="n">
         <v>1262.182746297368</v>
@@ -6449,10 +6449,10 @@
         <v>1062.439973388314</v>
       </c>
       <c r="F29" t="n">
-        <v>698.9037015467798</v>
+        <v>698.9037015467795</v>
       </c>
       <c r="G29" t="n">
-        <v>331.2808843398486</v>
+        <v>331.2808843398487</v>
       </c>
       <c r="H29" t="n">
         <v>81.14691689668916</v>
@@ -6461,25 +6461,25 @@
         <v>81.14691689668916</v>
       </c>
       <c r="J29" t="n">
-        <v>270.0260478557145</v>
+        <v>437.4316968760676</v>
       </c>
       <c r="K29" t="n">
-        <v>924.7493799910139</v>
+        <v>1092.155029011367</v>
       </c>
       <c r="L29" t="n">
-        <v>1561.793016801446</v>
+        <v>1543.189242259775</v>
       </c>
       <c r="M29" t="n">
-        <v>2095.324921473371</v>
+        <v>2305.516762226676</v>
       </c>
       <c r="N29" t="n">
-        <v>2642.103738532153</v>
+        <v>2852.295579285459</v>
       </c>
       <c r="O29" t="n">
-        <v>3145.07620941149</v>
+        <v>3355.268050164796</v>
       </c>
       <c r="P29" t="n">
-        <v>3539.850575768668</v>
+        <v>3750.042416521973</v>
       </c>
       <c r="Q29" t="n">
         <v>3998.328778277656</v>
@@ -6543,22 +6543,22 @@
         <v>174.8241863873064</v>
       </c>
       <c r="K30" t="n">
-        <v>413.0883853676542</v>
+        <v>413.0883853676535</v>
       </c>
       <c r="L30" t="n">
-        <v>779.7865456803195</v>
+        <v>779.7865456803188</v>
       </c>
       <c r="M30" t="n">
         <v>1227.062870902635</v>
       </c>
       <c r="N30" t="n">
-        <v>1700.58591445709</v>
+        <v>1700.585914457089</v>
       </c>
       <c r="O30" t="n">
         <v>2111.547193875144</v>
       </c>
       <c r="P30" t="n">
-        <v>2422.046785351247</v>
+        <v>2422.046785351246</v>
       </c>
       <c r="Q30" t="n">
         <v>2579.688342997847</v>
@@ -6595,49 +6595,49 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>774.1010502697997</v>
+        <v>774.1010502698001</v>
       </c>
       <c r="C31" t="n">
-        <v>652.614500289966</v>
+        <v>652.6145002899665</v>
       </c>
       <c r="D31" t="n">
-        <v>549.9474938257036</v>
+        <v>549.9474938257041</v>
       </c>
       <c r="E31" t="n">
-        <v>449.4840331913839</v>
+        <v>449.4840331913842</v>
       </c>
       <c r="F31" t="n">
-        <v>350.0437186415469</v>
+        <v>350.0437186415472</v>
       </c>
       <c r="G31" t="n">
-        <v>229.7905149643391</v>
+        <v>229.7905149643394</v>
       </c>
       <c r="H31" t="n">
-        <v>131.0229611302702</v>
+        <v>131.0229611302705</v>
       </c>
       <c r="I31" t="n">
         <v>81.14691689668916</v>
       </c>
       <c r="J31" t="n">
-        <v>172.7749345960312</v>
+        <v>172.7749345960314</v>
       </c>
       <c r="K31" t="n">
-        <v>423.2675027973141</v>
+        <v>423.2675027973144</v>
       </c>
       <c r="L31" t="n">
-        <v>786.3326864982166</v>
+        <v>786.3326864982171</v>
       </c>
       <c r="M31" t="n">
-        <v>1176.995117350172</v>
+        <v>1176.995117350173</v>
       </c>
       <c r="N31" t="n">
-        <v>1564.908879308443</v>
+        <v>1564.908879308444</v>
       </c>
       <c r="O31" t="n">
-        <v>1910.743863481263</v>
+        <v>1910.743863481264</v>
       </c>
       <c r="P31" t="n">
-        <v>2189.856749167329</v>
+        <v>2189.85674916733</v>
       </c>
       <c r="Q31" t="n">
         <v>2313.972430572251</v>
@@ -6655,7 +6655,7 @@
         <v>1711.385138644068</v>
       </c>
       <c r="V31" t="n">
-        <v>1504.150283386254</v>
+        <v>1504.150283386255</v>
       </c>
       <c r="W31" t="n">
         <v>1262.182746297367</v>
@@ -6664,7 +6664,7 @@
         <v>1081.642828347423</v>
       </c>
       <c r="Y31" t="n">
-        <v>908.299882151966</v>
+        <v>908.2998821519666</v>
       </c>
     </row>
     <row r="32">
@@ -6677,19 +6677,19 @@
         <v>2033.107542689499</v>
       </c>
       <c r="C32" t="n">
-        <v>1711.59465869716</v>
+        <v>1711.594658697161</v>
       </c>
       <c r="D32" t="n">
-        <v>1400.778593038483</v>
+        <v>1400.778593038484</v>
       </c>
       <c r="E32" t="n">
-        <v>1062.439973388312</v>
+        <v>1062.439973388313</v>
       </c>
       <c r="F32" t="n">
-        <v>698.9037015467775</v>
+        <v>698.9037015467786</v>
       </c>
       <c r="G32" t="n">
-        <v>331.2808843398487</v>
+        <v>331.2808843398486</v>
       </c>
       <c r="H32" t="n">
         <v>81.14691689668916</v>
@@ -6698,28 +6698,28 @@
         <v>81.14691689668916</v>
       </c>
       <c r="J32" t="n">
-        <v>270.0260478557145</v>
+        <v>437.4316968760676</v>
       </c>
       <c r="K32" t="n">
-        <v>603.8454215455608</v>
+        <v>771.2510705659141</v>
       </c>
       <c r="L32" t="n">
-        <v>1453.404136464984</v>
+        <v>1222.285283814323</v>
       </c>
       <c r="M32" t="n">
-        <v>1986.936041136909</v>
+        <v>1863.465327102305</v>
       </c>
       <c r="N32" t="n">
-        <v>2533.714858195691</v>
+        <v>2410.244144161088</v>
       </c>
       <c r="O32" t="n">
-        <v>3036.687329075028</v>
+        <v>3290.208794490542</v>
       </c>
       <c r="P32" t="n">
-        <v>3750.042416521973</v>
+        <v>3684.983160847721</v>
       </c>
       <c r="Q32" t="n">
-        <v>3998.328778277656</v>
+        <v>3933.269522603403</v>
       </c>
       <c r="R32" t="n">
         <v>4057.345844834458</v>
@@ -6734,7 +6734,7 @@
         <v>3629.895850863831</v>
       </c>
       <c r="V32" t="n">
-        <v>3346.282596468333</v>
+        <v>3346.282596468334</v>
       </c>
       <c r="W32" t="n">
         <v>3040.963574146293</v>
@@ -6753,34 +6753,34 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>956.1786549456143</v>
+        <v>956.1786549456133</v>
       </c>
       <c r="C33" t="n">
-        <v>781.7256256644873</v>
+        <v>781.7256256644863</v>
       </c>
       <c r="D33" t="n">
-        <v>632.7912160032361</v>
+        <v>632.7912160032351</v>
       </c>
       <c r="E33" t="n">
-        <v>473.5537609977806</v>
+        <v>473.5537609977796</v>
       </c>
       <c r="F33" t="n">
-        <v>327.0192030246656</v>
+        <v>327.0192030246646</v>
       </c>
       <c r="G33" t="n">
-        <v>190.6561028572837</v>
+        <v>190.6561028572835</v>
       </c>
       <c r="H33" t="n">
-        <v>100.1542084951512</v>
+        <v>100.1542084951511</v>
       </c>
       <c r="I33" t="n">
         <v>81.14691689668916</v>
       </c>
       <c r="J33" t="n">
-        <v>174.8241863873064</v>
+        <v>174.8241863873065</v>
       </c>
       <c r="K33" t="n">
-        <v>413.0883853676535</v>
+        <v>413.0883853676536</v>
       </c>
       <c r="L33" t="n">
         <v>779.7865456803188</v>
@@ -6792,7 +6792,7 @@
         <v>1700.585914457089</v>
       </c>
       <c r="O33" t="n">
-        <v>2111.547193875144</v>
+        <v>2111.547193875143</v>
       </c>
       <c r="P33" t="n">
         <v>2422.046785351246</v>
@@ -6801,28 +6801,28 @@
         <v>2579.688342997846</v>
       </c>
       <c r="R33" t="n">
-        <v>2579.543989590362</v>
+        <v>2579.543989590361</v>
       </c>
       <c r="S33" t="n">
-        <v>2450.106103083842</v>
+        <v>2450.106103083841</v>
       </c>
       <c r="T33" t="n">
-        <v>2257.463102761698</v>
+        <v>2257.463102761697</v>
       </c>
       <c r="U33" t="n">
         <v>2029.395255896113</v>
       </c>
       <c r="V33" t="n">
-        <v>1794.243147664371</v>
+        <v>1794.24314766437</v>
       </c>
       <c r="W33" t="n">
-        <v>1540.005790936169</v>
+        <v>1540.005790936168</v>
       </c>
       <c r="X33" t="n">
-        <v>1332.154290730636</v>
+        <v>1332.154290730635</v>
       </c>
       <c r="Y33" t="n">
-        <v>1124.393991965682</v>
+        <v>1124.393991965681</v>
       </c>
     </row>
     <row r="34">
@@ -6838,52 +6838,52 @@
         <v>652.6145002899668</v>
       </c>
       <c r="D34" t="n">
-        <v>549.9474938257043</v>
+        <v>549.9474938257044</v>
       </c>
       <c r="E34" t="n">
-        <v>449.4840331913845</v>
+        <v>449.4840331913847</v>
       </c>
       <c r="F34" t="n">
-        <v>350.0437186415473</v>
+        <v>350.0437186415477</v>
       </c>
       <c r="G34" t="n">
-        <v>229.7905149643395</v>
+        <v>229.79051496434</v>
       </c>
       <c r="H34" t="n">
-        <v>131.0229611302706</v>
+        <v>131.0229611302705</v>
       </c>
       <c r="I34" t="n">
         <v>81.14691689668916</v>
       </c>
       <c r="J34" t="n">
-        <v>172.7749345960313</v>
+        <v>172.7749345960314</v>
       </c>
       <c r="K34" t="n">
-        <v>423.2675027973154</v>
+        <v>423.2675027973144</v>
       </c>
       <c r="L34" t="n">
-        <v>786.3326864982181</v>
+        <v>786.3326864982172</v>
       </c>
       <c r="M34" t="n">
-        <v>1176.995117350174</v>
+        <v>1176.995117350173</v>
       </c>
       <c r="N34" t="n">
-        <v>1564.908879308445</v>
+        <v>1564.908879308444</v>
       </c>
       <c r="O34" t="n">
-        <v>1910.743863481265</v>
+        <v>1910.743863481264</v>
       </c>
       <c r="P34" t="n">
-        <v>2189.856749167331</v>
+        <v>2189.85674916733</v>
       </c>
       <c r="Q34" t="n">
-        <v>2313.972430572252</v>
+        <v>2313.972430572251</v>
       </c>
       <c r="R34" t="n">
-        <v>2271.591606277853</v>
+        <v>2271.591606277852</v>
       </c>
       <c r="S34" t="n">
-        <v>2127.355355052753</v>
+        <v>2127.355355052752</v>
       </c>
       <c r="T34" t="n">
         <v>1953.038372570352</v>
@@ -6901,7 +6901,7 @@
         <v>1081.642828347424</v>
       </c>
       <c r="Y34" t="n">
-        <v>908.2998821519669</v>
+        <v>908.2998821519668</v>
       </c>
     </row>
     <row r="35">
@@ -6926,43 +6926,43 @@
         <v>581.8252978307332</v>
       </c>
       <c r="G35" t="n">
-        <v>265.4242822495729</v>
+        <v>265.4242822495728</v>
       </c>
       <c r="H35" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I35" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J35" t="n">
-        <v>255.3912473912088</v>
+        <v>255.3912473912087</v>
       </c>
       <c r="K35" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810548</v>
       </c>
       <c r="L35" t="n">
         <v>1040.244834329464</v>
       </c>
       <c r="M35" t="n">
-        <v>1573.77673900139</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N35" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O35" t="n">
-        <v>2623.528026939509</v>
+        <v>2623.528026939507</v>
       </c>
       <c r="P35" t="n">
-        <v>3018.302393296687</v>
+        <v>3018.302393296685</v>
       </c>
       <c r="Q35" t="n">
-        <v>3266.588755052369</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R35" t="n">
         <v>3325.605821609171</v>
       </c>
       <c r="S35" t="n">
-        <v>3313.98658771011</v>
+        <v>3313.986587710109</v>
       </c>
       <c r="T35" t="n">
         <v>3206.680274668175</v>
@@ -7008,10 +7008,10 @@
         <v>176.021302392778</v>
       </c>
       <c r="H36" t="n">
-        <v>85.51940803064551</v>
+        <v>85.51940803064548</v>
       </c>
       <c r="I36" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J36" t="n">
         <v>160.1893859228007</v>
@@ -7020,19 +7020,19 @@
         <v>398.4535849031478</v>
       </c>
       <c r="L36" t="n">
-        <v>765.151745215813</v>
+        <v>765.1517452158134</v>
       </c>
       <c r="M36" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N36" t="n">
-        <v>1685.951113992583</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O36" t="n">
         <v>2096.912393410638</v>
       </c>
       <c r="P36" t="n">
-        <v>2407.41198488674</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q36" t="n">
         <v>2565.053542533341</v>
@@ -7069,34 +7069,34 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>698.2736995386227</v>
+        <v>500.9308303909357</v>
       </c>
       <c r="C37" t="n">
-        <v>529.3375166107159</v>
+        <v>430.6660820368722</v>
       </c>
       <c r="D37" t="n">
-        <v>379.2208771983801</v>
+        <v>379.2208771983799</v>
       </c>
       <c r="E37" t="n">
-        <v>329.9792181898304</v>
+        <v>329.9792181898302</v>
       </c>
       <c r="F37" t="n">
-        <v>183.08927069192</v>
+        <v>281.7607052657632</v>
       </c>
       <c r="G37" t="n">
-        <v>114.0578686404823</v>
+        <v>114.0578686404822</v>
       </c>
       <c r="H37" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I37" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J37" t="n">
-        <v>111.634748879119</v>
+        <v>111.6347488791189</v>
       </c>
       <c r="K37" t="n">
-        <v>315.6219318279953</v>
+        <v>315.6219318279952</v>
       </c>
       <c r="L37" t="n">
         <v>632.1817302764914</v>
@@ -7117,28 +7117,28 @@
         <v>1927.294548088492</v>
       </c>
       <c r="R37" t="n">
-        <v>1927.294548088492</v>
+        <v>1837.46409084602</v>
       </c>
       <c r="S37" t="n">
-        <v>1834.280098489162</v>
+        <v>1645.778206672847</v>
       </c>
       <c r="T37" t="n">
-        <v>1612.513483058688</v>
+        <v>1522.683025816216</v>
       </c>
       <c r="U37" t="n">
-        <v>1422.082050758175</v>
+        <v>1280.777345210197</v>
       </c>
       <c r="V37" t="n">
-        <v>1223.435726151997</v>
+        <v>1124.764291578153</v>
       </c>
       <c r="W37" t="n">
-        <v>1032.68999068888</v>
+        <v>934.0185561150361</v>
       </c>
       <c r="X37" t="n">
-        <v>903.3718743647058</v>
+        <v>804.7004397908621</v>
       </c>
       <c r="Y37" t="n">
-        <v>781.2507297950191</v>
+        <v>583.907860647332</v>
       </c>
     </row>
     <row r="38">
@@ -7157,13 +7157,13 @@
         <v>1181.256586070899</v>
       </c>
       <c r="E38" t="n">
-        <v>894.1397680464981</v>
+        <v>894.1397680464979</v>
       </c>
       <c r="F38" t="n">
-        <v>581.825297830734</v>
+        <v>581.8252978307338</v>
       </c>
       <c r="G38" t="n">
-        <v>265.4242822495727</v>
+        <v>265.4242822495728</v>
       </c>
       <c r="H38" t="n">
         <v>66.51211643218342</v>
@@ -7172,22 +7172,22 @@
         <v>66.51211643218342</v>
       </c>
       <c r="J38" t="n">
-        <v>255.3912473912083</v>
+        <v>255.3912473912088</v>
       </c>
       <c r="K38" t="n">
-        <v>589.2106210810543</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L38" t="n">
-        <v>1040.244834329463</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M38" t="n">
-        <v>1573.776739001387</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N38" t="n">
-        <v>2120.555556060169</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O38" t="n">
-        <v>2623.528026939507</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P38" t="n">
         <v>3018.302393296686</v>
@@ -7251,25 +7251,25 @@
         <v>66.51211643218342</v>
       </c>
       <c r="J39" t="n">
-        <v>160.1893859228007</v>
+        <v>160.1893859228011</v>
       </c>
       <c r="K39" t="n">
-        <v>398.4535849031478</v>
+        <v>398.4535849031482</v>
       </c>
       <c r="L39" t="n">
-        <v>765.151745215813</v>
+        <v>765.1517452158134</v>
       </c>
       <c r="M39" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N39" t="n">
-        <v>1685.951113992583</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O39" t="n">
         <v>2096.912393410638</v>
       </c>
       <c r="P39" t="n">
-        <v>2407.41198488674</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q39" t="n">
         <v>2565.053542533341</v>
@@ -7306,16 +7306,16 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>543.5641013650707</v>
+        <v>453.7336441225987</v>
       </c>
       <c r="C40" t="n">
-        <v>473.2993530110072</v>
+        <v>383.4688957685352</v>
       </c>
       <c r="D40" t="n">
-        <v>323.1827135986715</v>
+        <v>332.0236909300429</v>
       </c>
       <c r="E40" t="n">
-        <v>273.9410545901219</v>
+        <v>282.7820319214932</v>
       </c>
       <c r="F40" t="n">
         <v>183.0892706919198</v>
@@ -7354,28 +7354,28 @@
         <v>1927.294548088492</v>
       </c>
       <c r="R40" t="n">
-        <v>1927.294548088492</v>
+        <v>1837.46409084602</v>
       </c>
       <c r="S40" t="n">
-        <v>1834.280098489162</v>
+        <v>1645.778206672847</v>
       </c>
       <c r="T40" t="n">
-        <v>1711.184917632532</v>
+        <v>1522.683025816216</v>
       </c>
       <c r="U40" t="n">
-        <v>1520.753485332018</v>
+        <v>1332.251593515703</v>
       </c>
       <c r="V40" t="n">
-        <v>1266.068997126132</v>
+        <v>1176.23853988366</v>
       </c>
       <c r="W40" t="n">
-        <v>1075.323261663014</v>
+        <v>985.4928044205424</v>
       </c>
       <c r="X40" t="n">
-        <v>946.0051453388405</v>
+        <v>757.503253522525</v>
       </c>
       <c r="Y40" t="n">
-        <v>725.2125661953104</v>
+        <v>635.3821089528384</v>
       </c>
     </row>
     <row r="41">
@@ -7385,19 +7385,19 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1732.06513461059</v>
+        <v>1825.944081052177</v>
       </c>
       <c r="C41" t="n">
         <v>1536.519307255308</v>
       </c>
       <c r="D41" t="n">
-        <v>1257.7913517921</v>
+        <v>1257.791351792101</v>
       </c>
       <c r="E41" t="n">
-        <v>951.5408423373989</v>
+        <v>951.5408423373992</v>
       </c>
       <c r="F41" t="n">
-        <v>620.0926806913342</v>
+        <v>620.0926806913344</v>
       </c>
       <c r="G41" t="n">
         <v>284.5579736798734</v>
@@ -7415,10 +7415,10 @@
         <v>589.2106210810553</v>
       </c>
       <c r="L41" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M41" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N41" t="n">
         <v>2120.555556060171</v>
@@ -7436,25 +7436,25 @@
         <v>3325.605821609171</v>
       </c>
       <c r="S41" t="n">
-        <v>3294.852896279809</v>
+        <v>3294.852896279808</v>
       </c>
       <c r="T41" t="n">
         <v>3168.412891807573</v>
       </c>
       <c r="U41" t="n">
-        <v>3168.412891807573</v>
+        <v>2994.420158224952</v>
       </c>
       <c r="V41" t="n">
-        <v>2916.887747607546</v>
+        <v>2742.895014024924</v>
       </c>
       <c r="W41" t="n">
-        <v>2643.656835480975</v>
+        <v>2469.664101898353</v>
       </c>
       <c r="X41" t="n">
-        <v>2349.728820363438</v>
+        <v>2175.736086780816</v>
       </c>
       <c r="Y41" t="n">
-        <v>2039.127231531169</v>
+        <v>2133.006177972757</v>
       </c>
     </row>
     <row r="42">
@@ -7491,10 +7491,10 @@
         <v>160.1893859228007</v>
       </c>
       <c r="K42" t="n">
-        <v>398.4535849031478</v>
+        <v>398.4535849031482</v>
       </c>
       <c r="L42" t="n">
-        <v>765.151745215813</v>
+        <v>765.1517452158134</v>
       </c>
       <c r="M42" t="n">
         <v>1212.428070438129</v>
@@ -7543,25 +7543,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>676.2161595452671</v>
+        <v>534.8494784370081</v>
       </c>
       <c r="C43" t="n">
-        <v>586.8177197609031</v>
+        <v>445.4510386526439</v>
       </c>
       <c r="D43" t="n">
-        <v>516.2388234921102</v>
+        <v>374.8721423838509</v>
       </c>
       <c r="E43" t="n">
-        <v>386.0345350885432</v>
+        <v>306.4967919450006</v>
       </c>
       <c r="F43" t="n">
-        <v>318.6823307341757</v>
+        <v>239.144587590633</v>
       </c>
       <c r="G43" t="n">
-        <v>150.9794941088946</v>
+        <v>150.9794941088948</v>
       </c>
       <c r="H43" t="n">
-        <v>84.30005047029525</v>
+        <v>84.30005047029532</v>
       </c>
       <c r="I43" t="n">
         <v>66.51211643218342</v>
@@ -7600,19 +7600,19 @@
         <v>1662.624820673001</v>
       </c>
       <c r="U43" t="n">
-        <v>1453.059696942187</v>
+        <v>1373.521953798645</v>
       </c>
       <c r="V43" t="n">
-        <v>1277.912951879843</v>
+        <v>1198.3752087363</v>
       </c>
       <c r="W43" t="n">
-        <v>1068.033524986426</v>
+        <v>988.4957818428826</v>
       </c>
       <c r="X43" t="n">
-        <v>919.5817172319512</v>
+        <v>840.043974088408</v>
       </c>
       <c r="Y43" t="n">
-        <v>778.326881231964</v>
+        <v>698.7891380884207</v>
       </c>
     </row>
     <row r="44">
@@ -7622,19 +7622,19 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1825.944081052177</v>
+        <v>1558.072401027967</v>
       </c>
       <c r="C44" t="n">
-        <v>1536.519307255308</v>
+        <v>1268.647627231098</v>
       </c>
       <c r="D44" t="n">
-        <v>1257.7913517921</v>
+        <v>989.9196717678906</v>
       </c>
       <c r="E44" t="n">
-        <v>951.5408423373988</v>
+        <v>951.5408423373992</v>
       </c>
       <c r="F44" t="n">
-        <v>620.0926806913341</v>
+        <v>620.0926806913344</v>
       </c>
       <c r="G44" t="n">
         <v>284.5579736798734</v>
@@ -7649,7 +7649,7 @@
         <v>255.3912473912087</v>
       </c>
       <c r="K44" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810548</v>
       </c>
       <c r="L44" t="n">
         <v>1040.244834329464</v>
@@ -7658,13 +7658,13 @@
         <v>1573.776739001388</v>
       </c>
       <c r="N44" t="n">
-        <v>2120.55555606017</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O44" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939507</v>
       </c>
       <c r="P44" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296685</v>
       </c>
       <c r="Q44" t="n">
         <v>3266.588755052368</v>
@@ -7673,7 +7673,7 @@
         <v>3325.605821609171</v>
       </c>
       <c r="S44" t="n">
-        <v>3294.852896279809</v>
+        <v>3294.852896279808</v>
       </c>
       <c r="T44" t="n">
         <v>3168.412891807573</v>
@@ -7682,16 +7682,16 @@
         <v>2994.420158224953</v>
       </c>
       <c r="V44" t="n">
-        <v>2742.895014024925</v>
+        <v>2742.895014024924</v>
       </c>
       <c r="W44" t="n">
-        <v>2469.664101898354</v>
+        <v>2469.664101898353</v>
       </c>
       <c r="X44" t="n">
-        <v>2175.736086780817</v>
+        <v>2175.736086780816</v>
       </c>
       <c r="Y44" t="n">
-        <v>1865.134497948547</v>
+        <v>1865.134497948546</v>
       </c>
     </row>
     <row r="45">
@@ -7701,25 +7701,25 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>941.5438544811087</v>
+        <v>941.5438544811075</v>
       </c>
       <c r="C45" t="n">
-        <v>767.0908251999817</v>
+        <v>767.0908251999805</v>
       </c>
       <c r="D45" t="n">
-        <v>618.1564155387305</v>
+        <v>618.1564155387292</v>
       </c>
       <c r="E45" t="n">
-        <v>458.9189605332749</v>
+        <v>458.9189605332737</v>
       </c>
       <c r="F45" t="n">
-        <v>312.3844025601599</v>
+        <v>312.3844025601587</v>
       </c>
       <c r="G45" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927768</v>
       </c>
       <c r="H45" t="n">
-        <v>85.51940803064548</v>
+        <v>85.51940803064433</v>
       </c>
       <c r="I45" t="n">
         <v>66.51211643218342</v>
@@ -7728,49 +7728,49 @@
         <v>160.1893859228007</v>
       </c>
       <c r="K45" t="n">
-        <v>398.4535849031482</v>
+        <v>398.4535849031478</v>
       </c>
       <c r="L45" t="n">
-        <v>765.1517452158134</v>
+        <v>765.151745215813</v>
       </c>
       <c r="M45" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N45" t="n">
-        <v>1685.951113992584</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O45" t="n">
         <v>2096.912393410638</v>
       </c>
       <c r="P45" t="n">
-        <v>2407.411984886741</v>
+        <v>2407.41198488674</v>
       </c>
       <c r="Q45" t="n">
-        <v>2565.053542533341</v>
+        <v>2565.05354253334</v>
       </c>
       <c r="R45" t="n">
-        <v>2564.909189125856</v>
+        <v>2564.909189125855</v>
       </c>
       <c r="S45" t="n">
-        <v>2435.471302619336</v>
+        <v>2435.471302619335</v>
       </c>
       <c r="T45" t="n">
-        <v>2242.828302297192</v>
+        <v>2242.828302297191</v>
       </c>
       <c r="U45" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431606</v>
       </c>
       <c r="V45" t="n">
-        <v>1779.608347199865</v>
+        <v>1779.608347199864</v>
       </c>
       <c r="W45" t="n">
-        <v>1525.370990471663</v>
+        <v>1525.370990471662</v>
       </c>
       <c r="X45" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.519490266129</v>
       </c>
       <c r="Y45" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="46">
@@ -7780,25 +7780,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>676.2161595452671</v>
+        <v>534.8494784370081</v>
       </c>
       <c r="C46" t="n">
-        <v>507.2799766173603</v>
+        <v>445.4510386526439</v>
       </c>
       <c r="D46" t="n">
-        <v>436.7010803485674</v>
+        <v>374.8721423838509</v>
       </c>
       <c r="E46" t="n">
-        <v>368.3257299097171</v>
+        <v>306.4967919450006</v>
       </c>
       <c r="F46" t="n">
-        <v>239.1445875906329</v>
+        <v>239.144587590633</v>
       </c>
       <c r="G46" t="n">
-        <v>150.9794941088946</v>
+        <v>150.9794941088948</v>
       </c>
       <c r="H46" t="n">
-        <v>84.30005047029525</v>
+        <v>84.30005047029532</v>
       </c>
       <c r="I46" t="n">
         <v>66.51211643218342</v>
@@ -7834,22 +7834,22 @@
         <v>1804.853692959932</v>
       </c>
       <c r="T46" t="n">
-        <v>1662.624820673001</v>
+        <v>1583.087077529458</v>
       </c>
       <c r="U46" t="n">
-        <v>1453.059696942187</v>
+        <v>1311.693015833929</v>
       </c>
       <c r="V46" t="n">
-        <v>1277.912951879843</v>
+        <v>1136.546270771585</v>
       </c>
       <c r="W46" t="n">
-        <v>1068.033524986426</v>
+        <v>926.6668438781669</v>
       </c>
       <c r="X46" t="n">
-        <v>919.5817172319512</v>
+        <v>778.2150361236924</v>
       </c>
       <c r="Y46" t="n">
-        <v>778.326881231964</v>
+        <v>636.960200123705</v>
       </c>
     </row>
   </sheetData>
@@ -8450,28 +8450,28 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>160.0183140005876</v>
+        <v>160.0183140005885</v>
       </c>
       <c r="K8" t="n">
-        <v>188.5749436868843</v>
+        <v>188.5749436868856</v>
       </c>
       <c r="L8" t="n">
-        <v>196.6693856535341</v>
+        <v>196.6693856535358</v>
       </c>
       <c r="M8" t="n">
-        <v>186.8432549216621</v>
+        <v>186.8432549216639</v>
       </c>
       <c r="N8" t="n">
-        <v>185.206161621032</v>
+        <v>185.2061616210338</v>
       </c>
       <c r="O8" t="n">
-        <v>188.3548874463209</v>
+        <v>188.3548874463227</v>
       </c>
       <c r="P8" t="n">
-        <v>195.6060345082274</v>
+        <v>195.6060345082289</v>
       </c>
       <c r="Q8" t="n">
-        <v>195.5513256991275</v>
+        <v>195.5513256991286</v>
       </c>
       <c r="R8" t="n">
         <v>65.71641987298243</v>
@@ -8529,28 +8529,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>114.3137378027387</v>
+        <v>114.3137378027393</v>
       </c>
       <c r="K9" t="n">
-        <v>116.4361181302368</v>
+        <v>116.4361181302377</v>
       </c>
       <c r="L9" t="n">
-        <v>109.7722843242893</v>
+        <v>109.7722843242905</v>
       </c>
       <c r="M9" t="n">
-        <v>108.5466860890896</v>
+        <v>108.546686089091</v>
       </c>
       <c r="N9" t="n">
-        <v>96.86540709553961</v>
+        <v>96.86540709554106</v>
       </c>
       <c r="O9" t="n">
-        <v>111.0571608735099</v>
+        <v>111.0571608735113</v>
       </c>
       <c r="P9" t="n">
-        <v>108.6615123139312</v>
+        <v>108.6615123139323</v>
       </c>
       <c r="Q9" t="n">
-        <v>123.0607740630068</v>
+        <v>123.0607740630075</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8614,19 +8614,19 @@
         <v>106.7437663446525</v>
       </c>
       <c r="L10" t="n">
-        <v>118.3622673036562</v>
+        <v>118.3622673036569</v>
       </c>
       <c r="M10" t="n">
-        <v>121.5052202934258</v>
+        <v>121.5052202934265</v>
       </c>
       <c r="N10" t="n">
-        <v>110.679202877876</v>
+        <v>110.6792028778767</v>
       </c>
       <c r="O10" t="n">
-        <v>122.7484294397695</v>
+        <v>122.7484294397702</v>
       </c>
       <c r="P10" t="n">
-        <v>124.2870031296324</v>
+        <v>124.287003129633</v>
       </c>
       <c r="Q10" t="n">
         <v>65.34295837775146</v>
@@ -8763,7 +8763,7 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>2.025046796916286e-13</v>
+        <v>0</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -9237,7 +9237,7 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>2.025046796916286e-13</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -9635,13 +9635,13 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>0</v>
+        <v>79.23191823008619</v>
       </c>
       <c r="K23" t="n">
         <v>0</v>
       </c>
       <c r="L23" t="n">
-        <v>401.030626401568</v>
+        <v>0</v>
       </c>
       <c r="M23" t="n">
         <v>0</v>
@@ -9653,7 +9653,7 @@
         <v>0</v>
       </c>
       <c r="P23" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q23" t="n">
         <v>0</v>
@@ -9711,7 +9711,7 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>8.242295734817162e-13</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -9872,13 +9872,13 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K26" t="n">
         <v>324.1454125711647</v>
       </c>
       <c r="L26" t="n">
-        <v>400.2032972882117</v>
+        <v>0</v>
       </c>
       <c r="M26" t="n">
         <v>0</v>
@@ -9887,7 +9887,7 @@
         <v>0</v>
       </c>
       <c r="O26" t="n">
-        <v>0</v>
+        <v>165.3902622431559</v>
       </c>
       <c r="P26" t="n">
         <v>0</v>
@@ -9896,7 +9896,7 @@
         <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -9975,7 +9975,7 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>9.094947017729282e-13</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -10109,16 +10109,16 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K29" t="n">
         <v>324.1454125711647</v>
       </c>
       <c r="L29" t="n">
-        <v>187.8883066283069</v>
+        <v>0</v>
       </c>
       <c r="M29" t="n">
-        <v>0</v>
+        <v>231.1066821161379</v>
       </c>
       <c r="N29" t="n">
         <v>0</v>
@@ -10130,7 +10130,7 @@
         <v>0</v>
       </c>
       <c r="Q29" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R29" t="n">
         <v>0</v>
@@ -10346,31 +10346,31 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K32" t="n">
         <v>0</v>
       </c>
       <c r="L32" t="n">
-        <v>402.5500016878937</v>
+        <v>0</v>
       </c>
       <c r="M32" t="n">
-        <v>0</v>
+        <v>108.7354935515735</v>
       </c>
       <c r="N32" t="n">
         <v>0</v>
       </c>
       <c r="O32" t="n">
-        <v>0</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P32" t="n">
-        <v>321.7987081714826</v>
+        <v>0</v>
       </c>
       <c r="Q32" t="n">
         <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -10449,7 +10449,7 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>9.094947017729282e-13</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -10592,7 +10592,7 @@
         <v>0</v>
       </c>
       <c r="M35" t="n">
-        <v>1.70530256582424e-12</v>
+        <v>0</v>
       </c>
       <c r="N35" t="n">
         <v>0</v>
@@ -10832,7 +10832,7 @@
         <v>0</v>
       </c>
       <c r="N38" t="n">
-        <v>0</v>
+        <v>6.821210263296962e-13</v>
       </c>
       <c r="O38" t="n">
         <v>0</v>
@@ -11063,7 +11063,7 @@
         <v>0</v>
       </c>
       <c r="L41" t="n">
-        <v>6.821210263296962e-13</v>
+        <v>0</v>
       </c>
       <c r="M41" t="n">
         <v>0</v>
@@ -11072,7 +11072,7 @@
         <v>0</v>
       </c>
       <c r="O41" t="n">
-        <v>0</v>
+        <v>5.684341886080801e-13</v>
       </c>
       <c r="P41" t="n">
         <v>0</v>
@@ -11370,7 +11370,7 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>1.147526518252562e-12</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -23033,7 +23033,7 @@
         <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
-        <v>15.05498611348143</v>
+        <v>15.05498611348144</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -23255,22 +23255,22 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>100.4946171900449</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>323.6959619980815</v>
       </c>
       <c r="D11" t="n">
         <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>340.3534402993359</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>365.2991159687854</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>96.51398840563895</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -23324,7 +23324,7 @@
         <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>344.6610088831277</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -23428,10 +23428,10 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>25.51948462477304</v>
       </c>
       <c r="H13" t="n">
-        <v>81.3423468690485</v>
+        <v>103.1780851413948</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -23461,7 +23461,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>47.35522289712146</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
@@ -23492,13 +23492,13 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>341.1569118905547</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>323.6959619980815</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>313.1061118477569</v>
       </c>
       <c r="E14" t="n">
         <v>0</v>
@@ -23510,7 +23510,7 @@
         <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>69.07728352221504</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -23543,7 +23543,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>67.61083201524991</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
         <v>0</v>
@@ -23555,7 +23555,7 @@
         <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>307.6640389444871</v>
+        <v>148.7069925266675</v>
       </c>
       <c r="X14" t="n">
         <v>0</v>
@@ -23656,13 +23656,13 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>24.85345151616276</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>103.8441182500053</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
@@ -23701,7 +23701,7 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>128.6975697661694</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
@@ -23738,13 +23738,13 @@
         <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>312.3206581967409</v>
+        <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>0</v>
+        <v>51.73810315824446</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>341.3120137779326</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -23780,10 +23780,10 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>39.57804991265488</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>41.15140882678068</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
         <v>0</v>
@@ -23972,7 +23972,7 @@
         <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>0</v>
+        <v>51.73810315824443</v>
       </c>
       <c r="E20" t="n">
         <v>0</v>
@@ -23981,7 +23981,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>341.3120137779326</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -24017,13 +24017,13 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>39.57804991265489</v>
+        <v>0</v>
       </c>
       <c r="T20" t="n">
         <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>36.84384024298797</v>
+        <v>0</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -24035,7 +24035,7 @@
         <v>0</v>
       </c>
       <c r="Y20" t="n">
-        <v>316.6282267805327</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -24610,7 +24610,7 @@
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>-7.389644451905042e-13</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
@@ -24746,7 +24746,7 @@
         <v>0</v>
       </c>
       <c r="Y29" t="n">
-        <v>0</v>
+        <v>2.771116669464391e-13</v>
       </c>
     </row>
     <row r="30">
@@ -25090,7 +25090,7 @@
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>-6.110667527536862e-13</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -25628,7 +25628,7 @@
         <v>0</v>
       </c>
       <c r="C41" t="n">
-        <v>92.94015697717158</v>
+        <v>0</v>
       </c>
       <c r="D41" t="n">
         <v>0</v>
@@ -25682,7 +25682,7 @@
         <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>172.2528062467946</v>
+        <v>0</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -25694,7 +25694,7 @@
         <v>0</v>
       </c>
       <c r="Y41" t="n">
-        <v>0</v>
+        <v>265.1929632239676</v>
       </c>
     </row>
     <row r="42">
@@ -25862,7 +25862,7 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>265.1929632239668</v>
+        <v>0</v>
       </c>
       <c r="C44" t="n">
         <v>0</v>
@@ -25871,7 +25871,7 @@
         <v>0</v>
       </c>
       <c r="E44" t="n">
-        <v>0</v>
+        <v>265.192963223968</v>
       </c>
       <c r="F44" t="n">
         <v>0</v>
@@ -26139,7 +26139,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>942925.1762762513</v>
+        <v>942925.1762762519</v>
       </c>
     </row>
     <row r="5">
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>804176.8232021977</v>
+        <v>804176.8232021978</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>804176.8232021978</v>
+        <v>804176.8232021979</v>
       </c>
     </row>
     <row r="7">
@@ -26171,7 +26171,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>840221.7209541937</v>
+        <v>840221.7209541936</v>
       </c>
     </row>
     <row r="9">
@@ -26203,7 +26203,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>899019.0205148823</v>
+        <v>899019.0205148822</v>
       </c>
     </row>
     <row r="13">
@@ -26211,7 +26211,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>873072.8497277194</v>
+        <v>873072.8497277193</v>
       </c>
     </row>
     <row r="14">
@@ -26219,7 +26219,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>873072.8497277193</v>
+        <v>873072.8497277194</v>
       </c>
     </row>
     <row r="15">
@@ -26227,7 +26227,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>850908.0218614604</v>
+        <v>850908.0218614602</v>
       </c>
     </row>
     <row r="16">
@@ -26311,46 +26311,46 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>573493.4371019269</v>
+        <v>573493.437101927</v>
       </c>
       <c r="C2" t="n">
-        <v>573493.437101927</v>
+        <v>573493.4371019268</v>
       </c>
       <c r="D2" t="n">
-        <v>573507.2418100267</v>
+        <v>573507.2418100269</v>
       </c>
       <c r="E2" t="n">
-        <v>528798.5545546507</v>
+        <v>528798.554554651</v>
       </c>
       <c r="F2" t="n">
-        <v>528798.554554651</v>
+        <v>528798.5545546513</v>
       </c>
       <c r="G2" t="n">
+        <v>552828.4863893148</v>
+      </c>
+      <c r="H2" t="n">
         <v>552828.4863893145</v>
       </c>
-      <c r="H2" t="n">
-        <v>552828.4863893146</v>
-      </c>
       <c r="I2" t="n">
-        <v>574729.2389049983</v>
+        <v>574729.2389049985</v>
       </c>
       <c r="J2" t="n">
-        <v>574729.238904999</v>
+        <v>574729.2389049986</v>
       </c>
       <c r="K2" t="n">
         <v>574729.2389049988</v>
       </c>
       <c r="L2" t="n">
-        <v>574729.2389049995</v>
+        <v>574729.2389049989</v>
       </c>
       <c r="M2" t="n">
+        <v>574729.2389049984</v>
+      </c>
+      <c r="N2" t="n">
         <v>574729.2389049982</v>
       </c>
-      <c r="N2" t="n">
-        <v>574729.2389049988</v>
-      </c>
       <c r="O2" t="n">
-        <v>559952.6869941588</v>
+        <v>559952.6869941589</v>
       </c>
       <c r="P2" t="n">
         <v>559952.6869941587</v>
@@ -26369,37 +26369,37 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>52779.2200128254</v>
+        <v>52779.22001282318</v>
       </c>
       <c r="E3" t="n">
-        <v>1107517.348594702</v>
+        <v>1107517.348594704</v>
       </c>
       <c r="F3" t="n">
+        <v>0</v>
+      </c>
+      <c r="G3" t="n">
+        <v>22426.22568207609</v>
+      </c>
+      <c r="H3" t="n">
+        <v>0</v>
+      </c>
+      <c r="I3" t="n">
+        <v>26932.66340594338</v>
+      </c>
+      <c r="J3" t="n">
+        <v>36518.24439390841</v>
+      </c>
+      <c r="K3" t="n">
+        <v>0</v>
+      </c>
+      <c r="L3" t="n">
+        <v>22426.22568207593</v>
+      </c>
+      <c r="M3" t="n">
+        <v>202168.0999927242</v>
+      </c>
+      <c r="N3" t="n">
         <v>3.410605131648481e-11</v>
-      </c>
-      <c r="G3" t="n">
-        <v>22426.22568207602</v>
-      </c>
-      <c r="H3" t="n">
-        <v>0</v>
-      </c>
-      <c r="I3" t="n">
-        <v>26932.6634059433</v>
-      </c>
-      <c r="J3" t="n">
-        <v>36518.24439390833</v>
-      </c>
-      <c r="K3" t="n">
-        <v>0</v>
-      </c>
-      <c r="L3" t="n">
-        <v>22426.22568207597</v>
-      </c>
-      <c r="M3" t="n">
-        <v>202168.0999927243</v>
-      </c>
-      <c r="N3" t="n">
-        <v>0</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
@@ -26421,43 +26421,43 @@
         <v>441649.2499958205</v>
       </c>
       <c r="D4" t="n">
-        <v>423950.8583125317</v>
+        <v>423950.8583125324</v>
       </c>
       <c r="E4" t="n">
-        <v>53615.62358604895</v>
+        <v>53615.62358604906</v>
       </c>
       <c r="F4" t="n">
-        <v>53615.62358604897</v>
+        <v>53615.62358604906</v>
       </c>
       <c r="G4" t="n">
-        <v>73108.48428856902</v>
+        <v>73108.48428856897</v>
       </c>
       <c r="H4" t="n">
-        <v>73108.48428856902</v>
+        <v>73108.48428856899</v>
       </c>
       <c r="I4" t="n">
-        <v>87521.28438306546</v>
+        <v>87521.28438306553</v>
       </c>
       <c r="J4" t="n">
-        <v>84858.15940173098</v>
+        <v>84858.15940173095</v>
       </c>
       <c r="K4" t="n">
-        <v>84858.15940173094</v>
+        <v>84858.15940173093</v>
       </c>
       <c r="L4" t="n">
-        <v>84858.15940173091</v>
+        <v>84858.1594017309</v>
       </c>
       <c r="M4" t="n">
+        <v>90964.0109881571</v>
+      </c>
+      <c r="N4" t="n">
         <v>90964.01098815716</v>
       </c>
-      <c r="N4" t="n">
-        <v>90964.01098815714</v>
-      </c>
       <c r="O4" t="n">
-        <v>78915.48338654109</v>
+        <v>78915.48338654105</v>
       </c>
       <c r="P4" t="n">
-        <v>78915.48338654108</v>
+        <v>78915.48338654105</v>
       </c>
     </row>
     <row r="5">
@@ -26473,7 +26473,7 @@
         <v>33627.6</v>
       </c>
       <c r="D5" t="n">
-        <v>34971.09391331715</v>
+        <v>34971.09391331709</v>
       </c>
       <c r="E5" t="n">
         <v>77801.6714704734</v>
@@ -26506,10 +26506,10 @@
         <v>82518.59730624985</v>
       </c>
       <c r="O5" t="n">
-        <v>80926.13250444445</v>
+        <v>80926.13250444444</v>
       </c>
       <c r="P5" t="n">
-        <v>80926.13250444445</v>
+        <v>80926.13250444444</v>
       </c>
     </row>
     <row r="6">
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>98216.58710610642</v>
+        <v>98212.17352823843</v>
       </c>
       <c r="C6" t="n">
-        <v>98216.58710610648</v>
+        <v>98212.17352823814</v>
       </c>
       <c r="D6" t="n">
-        <v>61806.06957135249</v>
+        <v>61801.70529601505</v>
       </c>
       <c r="E6" t="n">
-        <v>-710136.089096574</v>
+        <v>-710300.1272549697</v>
       </c>
       <c r="F6" t="n">
-        <v>397381.2594981287</v>
+        <v>397217.2213397347</v>
       </c>
       <c r="G6" t="n">
-        <v>377135.416989613</v>
+        <v>377057.200016343</v>
       </c>
       <c r="H6" t="n">
-        <v>399561.6426716892</v>
+        <v>399483.4256984189</v>
       </c>
       <c r="I6" t="n">
         <v>373959.0654970445</v>
       </c>
       <c r="J6" t="n">
-        <v>363974.8934345536</v>
+        <v>363974.8934345531</v>
       </c>
       <c r="K6" t="n">
         <v>400493.1378284617</v>
       </c>
       <c r="L6" t="n">
-        <v>378066.9121463865</v>
+        <v>378066.9121463859</v>
       </c>
       <c r="M6" t="n">
-        <v>199078.530617867</v>
+        <v>199078.5306178673</v>
       </c>
       <c r="N6" t="n">
-        <v>401246.6306105918</v>
+        <v>401246.6306105912</v>
       </c>
       <c r="O6" t="n">
-        <v>400111.0711031732</v>
+        <v>400058.2977034919</v>
       </c>
       <c r="P6" t="n">
-        <v>400111.0711031731</v>
+        <v>400058.2977034916</v>
       </c>
     </row>
   </sheetData>
@@ -26692,40 +26692,40 @@
         <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>41.57692977292587</v>
+        <v>41.57692977292599</v>
       </c>
       <c r="F2" t="n">
-        <v>41.57692977292592</v>
+        <v>41.57692977292599</v>
       </c>
       <c r="G2" t="n">
-        <v>69.60971187552094</v>
+        <v>69.60971187552089</v>
       </c>
       <c r="H2" t="n">
-        <v>69.60971187552094</v>
+        <v>69.60971187552089</v>
       </c>
       <c r="I2" t="n">
-        <v>69.60971187552086</v>
+        <v>69.60971187552089</v>
       </c>
       <c r="J2" t="n">
-        <v>46.97513661859261</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="K2" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="L2" t="n">
-        <v>46.97513661859251</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="M2" t="n">
-        <v>97.68472022810491</v>
+        <v>97.68472022810496</v>
       </c>
       <c r="N2" t="n">
-        <v>97.68472022810502</v>
+        <v>97.68472022810501</v>
       </c>
       <c r="O2" t="n">
-        <v>78.7423657121074</v>
+        <v>78.74236571210733</v>
       </c>
       <c r="P2" t="n">
-        <v>78.7423657121074</v>
+        <v>78.74236571210733</v>
       </c>
     </row>
     <row r="3">
@@ -26741,7 +26741,7 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>61.62816116133715</v>
+        <v>61.62816116133457</v>
       </c>
       <c r="E3" t="n">
         <v>1089.776700593298</v>
@@ -26799,16 +26799,16 @@
         <v>831.4014554022926</v>
       </c>
       <c r="F4" t="n">
-        <v>831.4014554022928</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="G4" t="n">
-        <v>831.4014554022928</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="H4" t="n">
-        <v>831.4014554022928</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="I4" t="n">
-        <v>932.6821493149337</v>
+        <v>932.6821493149336</v>
       </c>
       <c r="J4" t="n">
         <v>1014.336461208615</v>
@@ -26820,7 +26820,7 @@
         <v>1014.336461208615</v>
       </c>
       <c r="M4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="N4" t="n">
         <v>831.4014554022926</v>
@@ -26914,34 +26914,34 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>41.57692977292587</v>
+        <v>41.57692977292599</v>
       </c>
       <c r="F2" t="n">
+        <v>0</v>
+      </c>
+      <c r="G2" t="n">
+        <v>28.03278210259489</v>
+      </c>
+      <c r="H2" t="n">
+        <v>0</v>
+      </c>
+      <c r="I2" t="n">
+        <v>0</v>
+      </c>
+      <c r="J2" t="n">
+        <v>18.94235451599768</v>
+      </c>
+      <c r="K2" t="n">
+        <v>0</v>
+      </c>
+      <c r="L2" t="n">
+        <v>28.03278210259491</v>
+      </c>
+      <c r="M2" t="n">
+        <v>50.70958360951238</v>
+      </c>
+      <c r="N2" t="n">
         <v>4.263256414560601e-14</v>
-      </c>
-      <c r="G2" t="n">
-        <v>28.03278210259503</v>
-      </c>
-      <c r="H2" t="n">
-        <v>0</v>
-      </c>
-      <c r="I2" t="n">
-        <v>-9.947598300641403e-14</v>
-      </c>
-      <c r="J2" t="n">
-        <v>18.94235451599762</v>
-      </c>
-      <c r="K2" t="n">
-        <v>0</v>
-      </c>
-      <c r="L2" t="n">
-        <v>28.03278210259496</v>
-      </c>
-      <c r="M2" t="n">
-        <v>50.70958360951239</v>
-      </c>
-      <c r="N2" t="n">
-        <v>0</v>
       </c>
       <c r="O2" t="n">
         <v>0</v>
@@ -26963,16 +26963,16 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>61.62816116133715</v>
+        <v>61.62816116133457</v>
       </c>
       <c r="E3" t="n">
-        <v>1028.148539431961</v>
+        <v>1028.148539431963</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -27033,7 +27033,7 @@
         <v>101.2806939126409</v>
       </c>
       <c r="J4" t="n">
-        <v>81.65431189368087</v>
+        <v>81.65431189368098</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>648.466449595971</v>
+        <v>648.4664495959707</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27151,13 +27151,13 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>41.57692977292587</v>
+        <v>41.57692977292599</v>
       </c>
       <c r="K2" t="n">
-        <v>4.263256414560601e-14</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>28.03278210259503</v>
+        <v>28.03278210259489</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -27166,7 +27166,7 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>18.94235451599762</v>
+        <v>18.94235451599768</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -27868,10 +27868,10 @@
         <v>400</v>
       </c>
       <c r="H8" t="n">
-        <v>336.9375180735821</v>
+        <v>336.9375180735822</v>
       </c>
       <c r="I8" t="n">
-        <v>200.9244536581548</v>
+        <v>200.9244536581552</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27898,13 +27898,13 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>134.3063039570257</v>
+        <v>134.3063039570263</v>
       </c>
       <c r="S8" t="n">
-        <v>203.3744345210636</v>
+        <v>203.3744345210638</v>
       </c>
       <c r="T8" t="n">
-        <v>222.0113178033926</v>
+        <v>222.0113178033927</v>
       </c>
       <c r="U8" t="n">
         <v>251.3258327957042</v>
@@ -27947,10 +27947,10 @@
         <v>137.2109584769391</v>
       </c>
       <c r="H9" t="n">
-        <v>110.9552063980317</v>
+        <v>110.9552063980318</v>
       </c>
       <c r="I9" t="n">
-        <v>84.8326605389953</v>
+        <v>84.83266053899548</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -27977,13 +27977,13 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>91.92756764887059</v>
+        <v>91.92756764887093</v>
       </c>
       <c r="S9" t="n">
-        <v>169.2209516461184</v>
+        <v>169.2209516461185</v>
       </c>
       <c r="T9" t="n">
-        <v>199.6304241655077</v>
+        <v>199.6304241655078</v>
       </c>
       <c r="U9" t="n">
         <v>225.9326611147727</v>
@@ -28029,13 +28029,13 @@
         <v>161.2391013334103</v>
       </c>
       <c r="I10" t="n">
-        <v>152.1084100564107</v>
+        <v>152.1084100564108</v>
       </c>
       <c r="J10" t="n">
-        <v>85.50209471746427</v>
+        <v>85.5020947174646</v>
       </c>
       <c r="K10" t="n">
-        <v>9.357886913720744</v>
+        <v>9.357886913721286</v>
       </c>
       <c r="L10" t="n">
         <v>0</v>
@@ -28053,13 +28053,13 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>76.85619091633248</v>
+        <v>76.85619091633286</v>
       </c>
       <c r="R10" t="n">
-        <v>172.2964588344814</v>
+        <v>172.2964588344816</v>
       </c>
       <c r="S10" t="n">
-        <v>222.0798573001479</v>
+        <v>222.079857300148</v>
       </c>
       <c r="T10" t="n">
         <v>227.470749498022</v>
@@ -28087,28 +28087,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>41.57692977292587</v>
+        <v>41.57692977292599</v>
       </c>
       <c r="C11" t="n">
-        <v>41.57692977292587</v>
+        <v>41.57692977292599</v>
       </c>
       <c r="D11" t="n">
-        <v>41.57692977292587</v>
+        <v>41.57692977292599</v>
       </c>
       <c r="E11" t="n">
-        <v>41.57692977292587</v>
+        <v>41.57692977292599</v>
       </c>
       <c r="F11" t="n">
-        <v>41.57692977292587</v>
+        <v>41.57692977292599</v>
       </c>
       <c r="G11" t="n">
-        <v>41.57692977292587</v>
+        <v>41.57692977292599</v>
       </c>
       <c r="H11" t="n">
-        <v>41.57692977292587</v>
+        <v>41.57692977292599</v>
       </c>
       <c r="I11" t="n">
-        <v>41.57692977292587</v>
+        <v>41.57692977292599</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -28138,25 +28138,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>41.57692977292587</v>
+        <v>41.57692977292599</v>
       </c>
       <c r="T11" t="n">
-        <v>41.57692977292587</v>
+        <v>41.57692977292599</v>
       </c>
       <c r="U11" t="n">
-        <v>41.57692977292587</v>
+        <v>41.57692977292599</v>
       </c>
       <c r="V11" t="n">
-        <v>41.57692977292587</v>
+        <v>41.57692977292599</v>
       </c>
       <c r="W11" t="n">
-        <v>41.57692977292587</v>
+        <v>41.57692977292599</v>
       </c>
       <c r="X11" t="n">
-        <v>41.57692977292587</v>
+        <v>41.57692977292599</v>
       </c>
       <c r="Y11" t="n">
-        <v>41.57692977292587</v>
+        <v>41.57692977292599</v>
       </c>
     </row>
     <row r="12">
@@ -28245,76 +28245,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>41.57692977292587</v>
+        <v>41.57692977292599</v>
       </c>
       <c r="C13" t="n">
-        <v>41.57692977292587</v>
+        <v>41.57692977292599</v>
       </c>
       <c r="D13" t="n">
-        <v>41.57692977292587</v>
+        <v>41.57692977292599</v>
       </c>
       <c r="E13" t="n">
-        <v>41.57692977292587</v>
+        <v>41.57692977292599</v>
       </c>
       <c r="F13" t="n">
-        <v>41.57692977292587</v>
+        <v>41.57692977292599</v>
       </c>
       <c r="G13" t="n">
-        <v>41.57692977292587</v>
+        <v>41.57692977292599</v>
       </c>
       <c r="H13" t="n">
-        <v>41.57692977292587</v>
+        <v>41.57692977292599</v>
       </c>
       <c r="I13" t="n">
-        <v>41.57692977292587</v>
+        <v>41.57692977292599</v>
       </c>
       <c r="J13" t="n">
-        <v>41.57692977292587</v>
+        <v>41.57692977292599</v>
       </c>
       <c r="K13" t="n">
-        <v>41.57692977292587</v>
+        <v>41.57692977292599</v>
       </c>
       <c r="L13" t="n">
-        <v>41.57692977292587</v>
+        <v>41.57692977292599</v>
       </c>
       <c r="M13" t="n">
-        <v>41.57692977292587</v>
+        <v>41.57692977292599</v>
       </c>
       <c r="N13" t="n">
-        <v>41.57692977292587</v>
+        <v>41.57692977292599</v>
       </c>
       <c r="O13" t="n">
-        <v>41.57692977292587</v>
+        <v>41.57692977292599</v>
       </c>
       <c r="P13" t="n">
-        <v>41.57692977292587</v>
+        <v>41.57692977292599</v>
       </c>
       <c r="Q13" t="n">
-        <v>41.57692977292587</v>
+        <v>41.57692977292599</v>
       </c>
       <c r="R13" t="n">
-        <v>41.57692977292587</v>
+        <v>41.57692977292599</v>
       </c>
       <c r="S13" t="n">
-        <v>41.57692977292587</v>
+        <v>41.57692977292599</v>
       </c>
       <c r="T13" t="n">
-        <v>41.57692977292587</v>
+        <v>41.57692977292599</v>
       </c>
       <c r="U13" t="n">
-        <v>41.57692977292587</v>
+        <v>41.57692977292599</v>
       </c>
       <c r="V13" t="n">
-        <v>41.57692977292587</v>
+        <v>41.57692977292599</v>
       </c>
       <c r="W13" t="n">
-        <v>41.57692977292587</v>
+        <v>41.57692977292599</v>
       </c>
       <c r="X13" t="n">
-        <v>41.57692977292587</v>
+        <v>41.57692977292599</v>
       </c>
       <c r="Y13" t="n">
-        <v>41.57692977292587</v>
+        <v>41.57692977292599</v>
       </c>
     </row>
     <row r="14">
@@ -28324,28 +28324,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>41.57692977292592</v>
+        <v>41.57692977292599</v>
       </c>
       <c r="C14" t="n">
-        <v>41.57692977292592</v>
+        <v>41.57692977292599</v>
       </c>
       <c r="D14" t="n">
-        <v>41.57692977292592</v>
+        <v>41.57692977292599</v>
       </c>
       <c r="E14" t="n">
-        <v>41.57692977292592</v>
+        <v>41.57692977292599</v>
       </c>
       <c r="F14" t="n">
-        <v>41.57692977292592</v>
+        <v>41.57692977292599</v>
       </c>
       <c r="G14" t="n">
-        <v>41.57692977292592</v>
+        <v>41.57692977292599</v>
       </c>
       <c r="H14" t="n">
-        <v>41.57692977292592</v>
+        <v>41.57692977292599</v>
       </c>
       <c r="I14" t="n">
-        <v>41.57692977292592</v>
+        <v>41.57692977292599</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -28375,25 +28375,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>41.57692977292592</v>
+        <v>41.57692977292599</v>
       </c>
       <c r="T14" t="n">
-        <v>41.57692977292592</v>
+        <v>41.57692977292599</v>
       </c>
       <c r="U14" t="n">
-        <v>41.57692977292592</v>
+        <v>41.57692977292599</v>
       </c>
       <c r="V14" t="n">
-        <v>41.57692977292592</v>
+        <v>41.57692977292599</v>
       </c>
       <c r="W14" t="n">
-        <v>41.57692977292592</v>
+        <v>41.57692977292599</v>
       </c>
       <c r="X14" t="n">
-        <v>41.57692977292592</v>
+        <v>41.57692977292599</v>
       </c>
       <c r="Y14" t="n">
-        <v>41.57692977292592</v>
+        <v>41.57692977292599</v>
       </c>
     </row>
     <row r="15">
@@ -28482,76 +28482,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>41.57692977292592</v>
+        <v>41.57692977292599</v>
       </c>
       <c r="C16" t="n">
-        <v>41.57692977292592</v>
+        <v>41.57692977292599</v>
       </c>
       <c r="D16" t="n">
-        <v>41.57692977292592</v>
+        <v>41.57692977292599</v>
       </c>
       <c r="E16" t="n">
-        <v>41.57692977292592</v>
+        <v>41.57692977292599</v>
       </c>
       <c r="F16" t="n">
-        <v>41.57692977292592</v>
+        <v>41.57692977292599</v>
       </c>
       <c r="G16" t="n">
-        <v>41.57692977292592</v>
+        <v>41.57692977292599</v>
       </c>
       <c r="H16" t="n">
-        <v>41.57692977292592</v>
+        <v>41.57692977292599</v>
       </c>
       <c r="I16" t="n">
-        <v>41.57692977292592</v>
+        <v>41.57692977292599</v>
       </c>
       <c r="J16" t="n">
-        <v>41.57692977292592</v>
+        <v>41.57692977292599</v>
       </c>
       <c r="K16" t="n">
-        <v>41.57692977292592</v>
+        <v>41.57692977292599</v>
       </c>
       <c r="L16" t="n">
-        <v>41.57692977292592</v>
+        <v>41.57692977292599</v>
       </c>
       <c r="M16" t="n">
-        <v>41.57692977292592</v>
+        <v>41.57692977292599</v>
       </c>
       <c r="N16" t="n">
-        <v>41.57692977292592</v>
+        <v>41.57692977292599</v>
       </c>
       <c r="O16" t="n">
-        <v>41.57692977292592</v>
+        <v>41.57692977292599</v>
       </c>
       <c r="P16" t="n">
-        <v>41.57692977292592</v>
+        <v>41.57692977292599</v>
       </c>
       <c r="Q16" t="n">
-        <v>41.57692977292592</v>
+        <v>41.57692977292599</v>
       </c>
       <c r="R16" t="n">
-        <v>41.57692977292592</v>
+        <v>41.57692977292599</v>
       </c>
       <c r="S16" t="n">
-        <v>41.57692977292592</v>
+        <v>41.57692977292599</v>
       </c>
       <c r="T16" t="n">
-        <v>41.57692977292592</v>
+        <v>41.57692977292599</v>
       </c>
       <c r="U16" t="n">
-        <v>41.57692977292592</v>
+        <v>41.57692977292599</v>
       </c>
       <c r="V16" t="n">
-        <v>41.57692977292592</v>
+        <v>41.57692977292599</v>
       </c>
       <c r="W16" t="n">
-        <v>41.57692977292592</v>
+        <v>41.57692977292599</v>
       </c>
       <c r="X16" t="n">
-        <v>41.57692977292592</v>
+        <v>41.57692977292599</v>
       </c>
       <c r="Y16" t="n">
-        <v>41.57692977292592</v>
+        <v>41.57692977292599</v>
       </c>
     </row>
     <row r="17">
@@ -28561,25 +28561,25 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>69.60971187552094</v>
+        <v>69.60971187552089</v>
       </c>
       <c r="C17" t="n">
-        <v>69.60971187552094</v>
+        <v>69.60971187552089</v>
       </c>
       <c r="D17" t="n">
-        <v>69.60971187552094</v>
+        <v>69.60971187552089</v>
       </c>
       <c r="E17" t="n">
-        <v>69.60971187552094</v>
+        <v>69.60971187552089</v>
       </c>
       <c r="F17" t="n">
-        <v>69.60971187552094</v>
+        <v>69.60971187552089</v>
       </c>
       <c r="G17" t="n">
-        <v>69.60971187552094</v>
+        <v>69.60971187552089</v>
       </c>
       <c r="H17" t="n">
-        <v>69.60971187552094</v>
+        <v>69.60971187552089</v>
       </c>
       <c r="I17" t="n">
         <v>41.57692977292595</v>
@@ -28612,25 +28612,25 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>69.60971187552094</v>
+        <v>69.60971187552089</v>
       </c>
       <c r="T17" t="n">
-        <v>69.60971187552094</v>
+        <v>69.60971187552089</v>
       </c>
       <c r="U17" t="n">
-        <v>69.60971187552094</v>
+        <v>69.60971187552089</v>
       </c>
       <c r="V17" t="n">
-        <v>69.60971187552094</v>
+        <v>69.60971187552089</v>
       </c>
       <c r="W17" t="n">
-        <v>69.60971187552094</v>
+        <v>69.60971187552089</v>
       </c>
       <c r="X17" t="n">
-        <v>69.60971187552094</v>
+        <v>69.60971187552089</v>
       </c>
       <c r="Y17" t="n">
-        <v>69.60971187552094</v>
+        <v>69.60971187552089</v>
       </c>
     </row>
     <row r="18">
@@ -28719,28 +28719,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>69.60971187552094</v>
+        <v>69.60971187552089</v>
       </c>
       <c r="C19" t="n">
-        <v>69.60971187552094</v>
+        <v>69.60971187552089</v>
       </c>
       <c r="D19" t="n">
-        <v>69.60971187552094</v>
+        <v>69.60971187552089</v>
       </c>
       <c r="E19" t="n">
-        <v>69.60971187552094</v>
+        <v>69.60971187552089</v>
       </c>
       <c r="F19" t="n">
-        <v>69.60971187552094</v>
+        <v>69.60971187552089</v>
       </c>
       <c r="G19" t="n">
-        <v>69.60971187552094</v>
+        <v>69.60971187552089</v>
       </c>
       <c r="H19" t="n">
-        <v>69.60971187552094</v>
+        <v>69.60971187552089</v>
       </c>
       <c r="I19" t="n">
-        <v>69.60971187552094</v>
+        <v>69.60971187552089</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -28755,7 +28755,7 @@
         <v>0</v>
       </c>
       <c r="N19" t="n">
-        <v>6.2947118541029</v>
+        <v>0</v>
       </c>
       <c r="O19" t="n">
         <v>0</v>
@@ -28764,31 +28764,31 @@
         <v>0</v>
       </c>
       <c r="Q19" t="n">
-        <v>0</v>
+        <v>6.294711854103497</v>
       </c>
       <c r="R19" t="n">
-        <v>69.60971187552094</v>
+        <v>69.60971187552089</v>
       </c>
       <c r="S19" t="n">
-        <v>69.60971187552094</v>
+        <v>69.60971187552089</v>
       </c>
       <c r="T19" t="n">
-        <v>69.60971187552094</v>
+        <v>69.60971187552089</v>
       </c>
       <c r="U19" t="n">
-        <v>69.60971187552094</v>
+        <v>69.60971187552089</v>
       </c>
       <c r="V19" t="n">
-        <v>69.60971187552094</v>
+        <v>69.60971187552089</v>
       </c>
       <c r="W19" t="n">
-        <v>69.60971187552094</v>
+        <v>69.60971187552089</v>
       </c>
       <c r="X19" t="n">
-        <v>69.60971187552094</v>
+        <v>69.60971187552089</v>
       </c>
       <c r="Y19" t="n">
-        <v>69.60971187552094</v>
+        <v>69.60971187552089</v>
       </c>
     </row>
     <row r="20">
@@ -28798,28 +28798,28 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>69.60971187552094</v>
+        <v>69.60971187552089</v>
       </c>
       <c r="C20" t="n">
-        <v>69.60971187552094</v>
+        <v>69.60971187552089</v>
       </c>
       <c r="D20" t="n">
-        <v>69.60971187552094</v>
+        <v>69.60971187552089</v>
       </c>
       <c r="E20" t="n">
-        <v>69.60971187552094</v>
+        <v>69.60971187552089</v>
       </c>
       <c r="F20" t="n">
-        <v>69.60971187552094</v>
+        <v>69.60971187552089</v>
       </c>
       <c r="G20" t="n">
-        <v>69.60971187552094</v>
+        <v>69.60971187552089</v>
       </c>
       <c r="H20" t="n">
-        <v>69.60971187552094</v>
+        <v>69.60971187552089</v>
       </c>
       <c r="I20" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -28849,25 +28849,25 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>69.60971187552094</v>
+        <v>69.60971187552089</v>
       </c>
       <c r="T20" t="n">
-        <v>69.60971187552094</v>
+        <v>69.60971187552089</v>
       </c>
       <c r="U20" t="n">
-        <v>69.60971187552094</v>
+        <v>69.60971187552089</v>
       </c>
       <c r="V20" t="n">
-        <v>69.60971187552094</v>
+        <v>69.60971187552089</v>
       </c>
       <c r="W20" t="n">
-        <v>69.60971187552094</v>
+        <v>69.60971187552089</v>
       </c>
       <c r="X20" t="n">
-        <v>69.60971187552094</v>
+        <v>69.60971187552089</v>
       </c>
       <c r="Y20" t="n">
-        <v>69.60971187552094</v>
+        <v>69.60971187552089</v>
       </c>
     </row>
     <row r="21">
@@ -28956,28 +28956,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>69.60971187552094</v>
+        <v>69.60971187552089</v>
       </c>
       <c r="C22" t="n">
-        <v>69.60971187552094</v>
+        <v>69.60971187552089</v>
       </c>
       <c r="D22" t="n">
-        <v>69.60971187552094</v>
+        <v>69.60971187552089</v>
       </c>
       <c r="E22" t="n">
-        <v>69.60971187552094</v>
+        <v>69.60971187552089</v>
       </c>
       <c r="F22" t="n">
-        <v>69.60971187552094</v>
+        <v>69.60971187552089</v>
       </c>
       <c r="G22" t="n">
-        <v>69.60971187552094</v>
+        <v>69.60971187552089</v>
       </c>
       <c r="H22" t="n">
-        <v>69.60971187552094</v>
+        <v>69.60971187552089</v>
       </c>
       <c r="I22" t="n">
-        <v>69.60971187552094</v>
+        <v>69.60971187552089</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -28995,37 +28995,37 @@
         <v>0</v>
       </c>
       <c r="O22" t="n">
-        <v>0</v>
+        <v>6.29471185410398</v>
       </c>
       <c r="P22" t="n">
-        <v>6.294711854103042</v>
+        <v>0</v>
       </c>
       <c r="Q22" t="n">
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>69.60971187552094</v>
+        <v>69.60971187552089</v>
       </c>
       <c r="S22" t="n">
-        <v>69.60971187552094</v>
+        <v>69.60971187552089</v>
       </c>
       <c r="T22" t="n">
-        <v>69.60971187552094</v>
+        <v>69.60971187552089</v>
       </c>
       <c r="U22" t="n">
-        <v>69.60971187552094</v>
+        <v>69.60971187552089</v>
       </c>
       <c r="V22" t="n">
-        <v>69.60971187552094</v>
+        <v>69.60971187552089</v>
       </c>
       <c r="W22" t="n">
-        <v>69.60971187552094</v>
+        <v>69.60971187552089</v>
       </c>
       <c r="X22" t="n">
-        <v>69.60971187552094</v>
+        <v>69.60971187552089</v>
       </c>
       <c r="Y22" t="n">
-        <v>69.60971187552094</v>
+        <v>69.60971187552089</v>
       </c>
     </row>
     <row r="23">
@@ -29035,28 +29035,28 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>69.60971187552086</v>
+        <v>69.60971187552089</v>
       </c>
       <c r="C23" t="n">
-        <v>69.60971187552086</v>
+        <v>69.60971187552089</v>
       </c>
       <c r="D23" t="n">
-        <v>69.60971187552086</v>
+        <v>69.60971187552089</v>
       </c>
       <c r="E23" t="n">
-        <v>69.60971187552086</v>
+        <v>69.60971187552089</v>
       </c>
       <c r="F23" t="n">
-        <v>69.60971187552086</v>
+        <v>69.60971187552089</v>
       </c>
       <c r="G23" t="n">
-        <v>69.60971187552086</v>
+        <v>69.60971187552089</v>
       </c>
       <c r="H23" t="n">
-        <v>69.60971187552086</v>
+        <v>69.60971187552089</v>
       </c>
       <c r="I23" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -29086,25 +29086,25 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>69.60971187552086</v>
+        <v>69.60971187552089</v>
       </c>
       <c r="T23" t="n">
-        <v>69.60971187552086</v>
+        <v>69.60971187552089</v>
       </c>
       <c r="U23" t="n">
-        <v>69.60971187552086</v>
+        <v>69.60971187552089</v>
       </c>
       <c r="V23" t="n">
-        <v>69.60971187552086</v>
+        <v>69.60971187552089</v>
       </c>
       <c r="W23" t="n">
-        <v>69.60971187552086</v>
+        <v>69.60971187552089</v>
       </c>
       <c r="X23" t="n">
-        <v>69.60971187552086</v>
+        <v>69.60971187552089</v>
       </c>
       <c r="Y23" t="n">
-        <v>69.60971187552086</v>
+        <v>69.60971187552089</v>
       </c>
     </row>
     <row r="24">
@@ -29193,40 +29193,40 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>69.60971187552086</v>
+        <v>69.60971187552089</v>
       </c>
       <c r="C25" t="n">
-        <v>69.60971187552086</v>
+        <v>69.60971187552089</v>
       </c>
       <c r="D25" t="n">
-        <v>69.60971187552086</v>
+        <v>69.60971187552089</v>
       </c>
       <c r="E25" t="n">
-        <v>69.60971187552086</v>
+        <v>69.60971187552089</v>
       </c>
       <c r="F25" t="n">
-        <v>69.60971187552086</v>
+        <v>69.60971187552089</v>
       </c>
       <c r="G25" t="n">
-        <v>69.60971187552086</v>
+        <v>69.60971187552089</v>
       </c>
       <c r="H25" t="n">
-        <v>69.60971187552086</v>
+        <v>69.60971187552089</v>
       </c>
       <c r="I25" t="n">
-        <v>69.60971187552086</v>
+        <v>69.60971187552089</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
       </c>
       <c r="K25" t="n">
-        <v>6.29471185410344</v>
+        <v>0</v>
       </c>
       <c r="L25" t="n">
         <v>0</v>
       </c>
       <c r="M25" t="n">
-        <v>0</v>
+        <v>6.294711854104094</v>
       </c>
       <c r="N25" t="n">
         <v>0</v>
@@ -29241,28 +29241,28 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>69.60971187552086</v>
+        <v>69.60971187552089</v>
       </c>
       <c r="S25" t="n">
-        <v>69.60971187552086</v>
+        <v>69.60971187552089</v>
       </c>
       <c r="T25" t="n">
-        <v>69.60971187552086</v>
+        <v>69.60971187552089</v>
       </c>
       <c r="U25" t="n">
-        <v>69.60971187552086</v>
+        <v>69.60971187552089</v>
       </c>
       <c r="V25" t="n">
-        <v>69.60971187552086</v>
+        <v>69.60971187552089</v>
       </c>
       <c r="W25" t="n">
-        <v>69.60971187552086</v>
+        <v>69.60971187552089</v>
       </c>
       <c r="X25" t="n">
-        <v>69.60971187552086</v>
+        <v>69.60971187552089</v>
       </c>
       <c r="Y25" t="n">
-        <v>69.60971187552086</v>
+        <v>69.60971187552089</v>
       </c>
     </row>
     <row r="26">
@@ -29272,25 +29272,25 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>46.97513661859261</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="C26" t="n">
-        <v>46.97513661859261</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="D26" t="n">
-        <v>46.97513661859261</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="E26" t="n">
-        <v>46.97513661859261</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="F26" t="n">
-        <v>46.97513661859261</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="G26" t="n">
-        <v>46.97513661859261</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="H26" t="n">
-        <v>46.97513661859261</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="I26" t="n">
         <v>41.57692977292598</v>
@@ -29323,25 +29323,25 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>46.97513661859261</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="T26" t="n">
-        <v>46.97513661859261</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="U26" t="n">
-        <v>46.97513661859261</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="V26" t="n">
-        <v>46.97513661859261</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="W26" t="n">
-        <v>46.97513661859261</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="X26" t="n">
-        <v>46.97513661859261</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="Y26" t="n">
-        <v>46.97513661859261</v>
+        <v>46.97513661859257</v>
       </c>
     </row>
     <row r="27">
@@ -29430,76 +29430,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>46.97513661859261</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="C28" t="n">
-        <v>46.97513661859261</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="D28" t="n">
-        <v>46.97513661859261</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="E28" t="n">
-        <v>46.97513661859261</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="F28" t="n">
-        <v>46.97513661859261</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="G28" t="n">
-        <v>46.97513661859261</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="H28" t="n">
-        <v>46.97513661859261</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="I28" t="n">
-        <v>46.97513661859261</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="J28" t="n">
-        <v>46.97513661859261</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="K28" t="n">
-        <v>46.97513661859261</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="L28" t="n">
-        <v>46.97513661859261</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="M28" t="n">
-        <v>46.97513661859261</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="N28" t="n">
-        <v>46.97513661859261</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="O28" t="n">
-        <v>46.97513661859261</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="P28" t="n">
-        <v>46.97513661859261</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="Q28" t="n">
-        <v>46.97513661859261</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="R28" t="n">
-        <v>46.97513661859261</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="S28" t="n">
-        <v>46.97513661859261</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="T28" t="n">
-        <v>46.97513661859261</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="U28" t="n">
-        <v>46.97513661859261</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="V28" t="n">
-        <v>46.97513661859261</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="W28" t="n">
-        <v>46.97513661859261</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="X28" t="n">
-        <v>46.97513661859261</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="Y28" t="n">
-        <v>46.97513661859261</v>
+        <v>46.97513661859257</v>
       </c>
     </row>
     <row r="29">
@@ -29509,25 +29509,25 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="C29" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="D29" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="E29" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="F29" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="G29" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="H29" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="I29" t="n">
         <v>41.57692977292598</v>
@@ -29560,25 +29560,25 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="T29" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="U29" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="V29" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="W29" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="X29" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="Y29" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
     </row>
     <row r="30">
@@ -29667,76 +29667,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="C31" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="D31" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="E31" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="F31" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="G31" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="H31" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="I31" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="J31" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="K31" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="L31" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="M31" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="N31" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="O31" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="P31" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="Q31" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="R31" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="S31" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="T31" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="U31" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="V31" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="W31" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="X31" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="Y31" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
     </row>
     <row r="32">
@@ -29746,28 +29746,28 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>46.97513661859251</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="C32" t="n">
-        <v>46.97513661859251</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="D32" t="n">
-        <v>46.97513661859251</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="E32" t="n">
-        <v>46.97513661859251</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="F32" t="n">
-        <v>46.97513661859251</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="G32" t="n">
-        <v>46.97513661859251</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="H32" t="n">
-        <v>46.97513661859251</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="I32" t="n">
-        <v>41.57692977292598</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -29797,25 +29797,25 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>46.97513661859251</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="T32" t="n">
-        <v>46.97513661859251</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="U32" t="n">
-        <v>46.97513661859251</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="V32" t="n">
-        <v>46.97513661859251</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="W32" t="n">
-        <v>46.97513661859251</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="X32" t="n">
-        <v>46.97513661859251</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="Y32" t="n">
-        <v>46.97513661859251</v>
+        <v>46.97513661859259</v>
       </c>
     </row>
     <row r="33">
@@ -29904,76 +29904,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>46.97513661859251</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="C34" t="n">
-        <v>46.97513661859251</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="D34" t="n">
-        <v>46.97513661859251</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="E34" t="n">
-        <v>46.97513661859251</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="F34" t="n">
-        <v>46.97513661859251</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="G34" t="n">
-        <v>46.97513661859251</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="H34" t="n">
-        <v>46.97513661859251</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="I34" t="n">
-        <v>46.97513661859251</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="J34" t="n">
-        <v>46.97513661859251</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="K34" t="n">
-        <v>46.97513661859369</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="L34" t="n">
-        <v>46.97513661859251</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="M34" t="n">
-        <v>46.97513661859251</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="N34" t="n">
-        <v>46.97513661859251</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="O34" t="n">
-        <v>46.97513661859251</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="P34" t="n">
-        <v>46.97513661859251</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="Q34" t="n">
-        <v>46.97513661859251</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="R34" t="n">
-        <v>46.97513661859251</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="S34" t="n">
-        <v>46.97513661859251</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="T34" t="n">
-        <v>46.97513661859251</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="U34" t="n">
-        <v>46.97513661859251</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="V34" t="n">
-        <v>46.97513661859251</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="W34" t="n">
-        <v>46.97513661859251</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="X34" t="n">
-        <v>46.97513661859251</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="Y34" t="n">
-        <v>46.97513661859251</v>
+        <v>46.97513661859259</v>
       </c>
     </row>
     <row r="35">
@@ -29983,25 +29983,25 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>97.68472022810491</v>
+        <v>97.68472022810496</v>
       </c>
       <c r="C35" t="n">
-        <v>97.68472022810491</v>
+        <v>97.68472022810496</v>
       </c>
       <c r="D35" t="n">
-        <v>97.68472022810491</v>
+        <v>97.68472022810496</v>
       </c>
       <c r="E35" t="n">
-        <v>97.68472022810491</v>
+        <v>97.68472022810496</v>
       </c>
       <c r="F35" t="n">
-        <v>97.68472022810491</v>
+        <v>97.68472022810496</v>
       </c>
       <c r="G35" t="n">
-        <v>97.68472022810491</v>
+        <v>97.68472022810496</v>
       </c>
       <c r="H35" t="n">
-        <v>97.68472022810491</v>
+        <v>97.68472022810496</v>
       </c>
       <c r="I35" t="n">
         <v>41.57692977292598</v>
@@ -30034,25 +30034,25 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>97.68472022810491</v>
+        <v>97.68472022810496</v>
       </c>
       <c r="T35" t="n">
-        <v>97.68472022810491</v>
+        <v>97.68472022810496</v>
       </c>
       <c r="U35" t="n">
-        <v>97.68472022810491</v>
+        <v>97.68472022810496</v>
       </c>
       <c r="V35" t="n">
-        <v>97.68472022810491</v>
+        <v>97.68472022810496</v>
       </c>
       <c r="W35" t="n">
-        <v>97.68472022810491</v>
+        <v>97.68472022810496</v>
       </c>
       <c r="X35" t="n">
-        <v>97.68472022810491</v>
+        <v>97.68472022810496</v>
       </c>
       <c r="Y35" t="n">
-        <v>97.68472022810491</v>
+        <v>97.68472022810496</v>
       </c>
     </row>
     <row r="36">
@@ -30141,25 +30141,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>97.68472022810491</v>
+        <v>97.68472022810496</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>97.68472022810496</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>97.68472022810496</v>
       </c>
       <c r="E37" t="n">
-        <v>97.68472022810491</v>
+        <v>97.68472022810496</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>97.68472022810496</v>
       </c>
       <c r="G37" t="n">
-        <v>97.68472022810491</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>97.68472022810491</v>
+        <v>97.68472022810496</v>
       </c>
       <c r="I37" t="n">
         <v>96.35242040983812</v>
@@ -30189,28 +30189,28 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>88.93215267004734</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>97.68472022810491</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>97.68472022810496</v>
       </c>
       <c r="U37" t="n">
-        <v>97.68472022810491</v>
+        <v>46.72521440565373</v>
       </c>
       <c r="V37" t="n">
-        <v>55.47778196371198</v>
+        <v>97.68472022810496</v>
       </c>
       <c r="W37" t="n">
-        <v>97.68472022810491</v>
+        <v>97.68472022810496</v>
       </c>
       <c r="X37" t="n">
-        <v>97.68472022810491</v>
+        <v>97.68472022810496</v>
       </c>
       <c r="Y37" t="n">
-        <v>97.68472022810491</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -30220,25 +30220,25 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>97.68472022810502</v>
+        <v>97.68472022810501</v>
       </c>
       <c r="C38" t="n">
-        <v>97.68472022810502</v>
+        <v>97.68472022810501</v>
       </c>
       <c r="D38" t="n">
-        <v>97.68472022810502</v>
+        <v>97.68472022810501</v>
       </c>
       <c r="E38" t="n">
-        <v>97.68472022810502</v>
+        <v>97.68472022810501</v>
       </c>
       <c r="F38" t="n">
-        <v>97.68472022810502</v>
+        <v>97.68472022810501</v>
       </c>
       <c r="G38" t="n">
-        <v>97.68472022810502</v>
+        <v>97.68472022810501</v>
       </c>
       <c r="H38" t="n">
-        <v>97.68472022810502</v>
+        <v>97.68472022810501</v>
       </c>
       <c r="I38" t="n">
         <v>41.57692977292598</v>
@@ -30271,25 +30271,25 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>97.68472022810502</v>
+        <v>97.68472022810501</v>
       </c>
       <c r="T38" t="n">
-        <v>97.68472022810502</v>
+        <v>97.68472022810501</v>
       </c>
       <c r="U38" t="n">
-        <v>97.68472022810502</v>
+        <v>97.68472022810501</v>
       </c>
       <c r="V38" t="n">
-        <v>97.68472022810502</v>
+        <v>97.68472022810501</v>
       </c>
       <c r="W38" t="n">
-        <v>97.68472022810502</v>
+        <v>97.68472022810501</v>
       </c>
       <c r="X38" t="n">
-        <v>97.68472022810502</v>
+        <v>97.68472022810501</v>
       </c>
       <c r="Y38" t="n">
-        <v>97.68472022810502</v>
+        <v>97.68472022810501</v>
       </c>
     </row>
     <row r="39">
@@ -30381,22 +30381,22 @@
         <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>97.68472022810502</v>
+        <v>97.68472022810501</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>97.68472022810501</v>
       </c>
       <c r="E40" t="n">
-        <v>97.68472022810502</v>
+        <v>97.68472022810501</v>
       </c>
       <c r="F40" t="n">
-        <v>55.47778196371112</v>
+        <v>46.72521440565353</v>
       </c>
       <c r="G40" t="n">
-        <v>97.68472022810502</v>
+        <v>97.68472022810501</v>
       </c>
       <c r="H40" t="n">
-        <v>97.68472022810502</v>
+        <v>97.68472022810501</v>
       </c>
       <c r="I40" t="n">
         <v>96.35242040983812</v>
@@ -30426,28 +30426,28 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>88.93215267004734</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>97.68472022810502</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>97.68472022810502</v>
+        <v>97.68472022810501</v>
       </c>
       <c r="U40" t="n">
-        <v>97.68472022810502</v>
+        <v>97.68472022810501</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>97.68472022810501</v>
       </c>
       <c r="W40" t="n">
-        <v>97.68472022810502</v>
+        <v>97.68472022810501</v>
       </c>
       <c r="X40" t="n">
-        <v>97.68472022810502</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>97.68472022810501</v>
       </c>
     </row>
     <row r="41">
@@ -30457,25 +30457,25 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>78.7423657121074</v>
+        <v>78.74236571210733</v>
       </c>
       <c r="C41" t="n">
-        <v>78.7423657121074</v>
+        <v>78.74236571210733</v>
       </c>
       <c r="D41" t="n">
-        <v>78.7423657121074</v>
+        <v>78.74236571210733</v>
       </c>
       <c r="E41" t="n">
-        <v>78.7423657121074</v>
+        <v>78.74236571210733</v>
       </c>
       <c r="F41" t="n">
-        <v>78.7423657121074</v>
+        <v>78.74236571210733</v>
       </c>
       <c r="G41" t="n">
-        <v>78.7423657121074</v>
+        <v>78.74236571210733</v>
       </c>
       <c r="H41" t="n">
-        <v>78.7423657121074</v>
+        <v>78.74236571210733</v>
       </c>
       <c r="I41" t="n">
         <v>41.57692977292598</v>
@@ -30508,25 +30508,25 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>78.7423657121074</v>
+        <v>78.74236571210733</v>
       </c>
       <c r="T41" t="n">
-        <v>78.7423657121074</v>
+        <v>78.74236571210733</v>
       </c>
       <c r="U41" t="n">
-        <v>78.7423657121074</v>
+        <v>78.74236571210733</v>
       </c>
       <c r="V41" t="n">
-        <v>78.7423657121074</v>
+        <v>78.74236571210733</v>
       </c>
       <c r="W41" t="n">
-        <v>78.7423657121074</v>
+        <v>78.74236571210733</v>
       </c>
       <c r="X41" t="n">
-        <v>78.7423657121074</v>
+        <v>78.74236571210733</v>
       </c>
       <c r="Y41" t="n">
-        <v>78.7423657121074</v>
+        <v>78.74236571210733</v>
       </c>
     </row>
     <row r="42">
@@ -30615,28 +30615,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>78.7423657121074</v>
+        <v>17.5317171270388</v>
       </c>
       <c r="C43" t="n">
-        <v>78.7423657121074</v>
+        <v>78.74236571210733</v>
       </c>
       <c r="D43" t="n">
-        <v>78.7423657121074</v>
+        <v>78.74236571210733</v>
       </c>
       <c r="E43" t="n">
-        <v>17.53171712703787</v>
+        <v>78.74236571210733</v>
       </c>
       <c r="F43" t="n">
-        <v>78.7423657121074</v>
+        <v>78.74236571210733</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>78.74236571210733</v>
       </c>
       <c r="H43" t="n">
-        <v>78.7423657121074</v>
+        <v>78.74236571210733</v>
       </c>
       <c r="I43" t="n">
-        <v>78.7423657121074</v>
+        <v>78.74236571210733</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -30663,28 +30663,28 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>78.7423657121074</v>
+        <v>78.74236571210733</v>
       </c>
       <c r="S43" t="n">
-        <v>78.7423657121074</v>
+        <v>78.74236571210733</v>
       </c>
       <c r="T43" t="n">
-        <v>78.7423657121074</v>
+        <v>78.74236571210733</v>
       </c>
       <c r="U43" t="n">
-        <v>78.7423657121074</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>78.7423657121074</v>
+        <v>78.74236571210733</v>
       </c>
       <c r="W43" t="n">
-        <v>78.7423657121074</v>
+        <v>78.74236571210733</v>
       </c>
       <c r="X43" t="n">
-        <v>78.7423657121074</v>
+        <v>78.74236571210733</v>
       </c>
       <c r="Y43" t="n">
-        <v>78.7423657121074</v>
+        <v>78.74236571210733</v>
       </c>
     </row>
     <row r="44">
@@ -30694,25 +30694,25 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>78.7423657121074</v>
+        <v>78.74236571210733</v>
       </c>
       <c r="C44" t="n">
-        <v>78.7423657121074</v>
+        <v>78.74236571210733</v>
       </c>
       <c r="D44" t="n">
-        <v>78.7423657121074</v>
+        <v>78.74236571210733</v>
       </c>
       <c r="E44" t="n">
-        <v>78.7423657121074</v>
+        <v>78.74236571210733</v>
       </c>
       <c r="F44" t="n">
-        <v>78.7423657121074</v>
+        <v>78.74236571210733</v>
       </c>
       <c r="G44" t="n">
-        <v>78.7423657121074</v>
+        <v>78.74236571210733</v>
       </c>
       <c r="H44" t="n">
-        <v>78.7423657121074</v>
+        <v>78.74236571210733</v>
       </c>
       <c r="I44" t="n">
         <v>41.57692977292598</v>
@@ -30745,25 +30745,25 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>78.7423657121074</v>
+        <v>78.74236571210733</v>
       </c>
       <c r="T44" t="n">
-        <v>78.7423657121074</v>
+        <v>78.74236571210733</v>
       </c>
       <c r="U44" t="n">
-        <v>78.7423657121074</v>
+        <v>78.74236571210733</v>
       </c>
       <c r="V44" t="n">
-        <v>78.7423657121074</v>
+        <v>78.74236571210733</v>
       </c>
       <c r="W44" t="n">
-        <v>78.7423657121074</v>
+        <v>78.74236571210733</v>
       </c>
       <c r="X44" t="n">
-        <v>78.7423657121074</v>
+        <v>78.74236571210733</v>
       </c>
       <c r="Y44" t="n">
-        <v>78.7423657121074</v>
+        <v>78.74236571210733</v>
       </c>
     </row>
     <row r="45">
@@ -30852,28 +30852,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>78.7423657121074</v>
+        <v>78.74236571210733</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>78.74236571210733</v>
       </c>
       <c r="D46" t="n">
-        <v>78.7423657121074</v>
+        <v>78.74236571210733</v>
       </c>
       <c r="E46" t="n">
-        <v>78.7423657121074</v>
+        <v>78.74236571210733</v>
       </c>
       <c r="F46" t="n">
-        <v>17.53171712703785</v>
+        <v>78.74236571210733</v>
       </c>
       <c r="G46" t="n">
-        <v>78.7423657121074</v>
+        <v>78.74236571210733</v>
       </c>
       <c r="H46" t="n">
-        <v>78.7423657121074</v>
+        <v>78.74236571210733</v>
       </c>
       <c r="I46" t="n">
-        <v>78.7423657121074</v>
+        <v>78.74236571210733</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -30900,28 +30900,28 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>78.7423657121074</v>
+        <v>78.74236571210733</v>
       </c>
       <c r="S46" t="n">
-        <v>78.7423657121074</v>
+        <v>78.74236571210733</v>
       </c>
       <c r="T46" t="n">
-        <v>78.7423657121074</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>78.7423657121074</v>
+        <v>17.53171712703852</v>
       </c>
       <c r="V46" t="n">
-        <v>78.7423657121074</v>
+        <v>78.74236571210733</v>
       </c>
       <c r="W46" t="n">
-        <v>78.7423657121074</v>
+        <v>78.74236571210733</v>
       </c>
       <c r="X46" t="n">
-        <v>78.7423657121074</v>
+        <v>78.74236571210733</v>
       </c>
       <c r="Y46" t="n">
-        <v>78.7423657121074</v>
+        <v>78.74236571210733</v>
       </c>
     </row>
   </sheetData>
@@ -31513,49 +31513,49 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>0.2477514016536165</v>
+        <v>0.2477514016536061</v>
       </c>
       <c r="H8" t="n">
-        <v>2.537284042185101</v>
+        <v>2.537284042184994</v>
       </c>
       <c r="I8" t="n">
-        <v>9.55143591225106</v>
+        <v>9.551435912250659</v>
       </c>
       <c r="J8" t="n">
-        <v>21.02759052609865</v>
+        <v>21.02759052609777</v>
       </c>
       <c r="K8" t="n">
-        <v>31.51490735809625</v>
+        <v>31.51490735809492</v>
       </c>
       <c r="L8" t="n">
-        <v>39.09702931645312</v>
+        <v>39.09702931645148</v>
       </c>
       <c r="M8" t="n">
-        <v>43.50297830561062</v>
+        <v>43.5029783056088</v>
       </c>
       <c r="N8" t="n">
-        <v>44.20690197555896</v>
+        <v>44.20690197555711</v>
       </c>
       <c r="O8" t="n">
-        <v>41.74332397536581</v>
+        <v>41.74332397536406</v>
       </c>
       <c r="P8" t="n">
-        <v>35.62696124704215</v>
+        <v>35.62696124704065</v>
       </c>
       <c r="Q8" t="n">
-        <v>26.754364175322</v>
+        <v>26.75436417532088</v>
       </c>
       <c r="R8" t="n">
-        <v>15.562813984124</v>
+        <v>15.56281398412335</v>
       </c>
       <c r="S8" t="n">
-        <v>5.645635065181792</v>
+        <v>5.645635065181555</v>
       </c>
       <c r="T8" t="n">
-        <v>1.084531760738707</v>
+        <v>1.084531760738661</v>
       </c>
       <c r="U8" t="n">
-        <v>0.01982011213228932</v>
+        <v>0.01982011213228849</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31592,49 +31592,49 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.1325586862715554</v>
+        <v>0.1325586862715498</v>
       </c>
       <c r="H9" t="n">
-        <v>1.280237838464759</v>
+        <v>1.280237838464705</v>
       </c>
       <c r="I9" t="n">
-        <v>4.56397231241978</v>
+        <v>4.563972312419589</v>
       </c>
       <c r="J9" t="n">
-        <v>12.52388886392796</v>
+        <v>12.52388886392744</v>
       </c>
       <c r="K9" t="n">
-        <v>21.40532084412217</v>
+        <v>21.40532084412127</v>
       </c>
       <c r="L9" t="n">
-        <v>28.78209545558487</v>
+        <v>28.78209545558366</v>
       </c>
       <c r="M9" t="n">
-        <v>33.58734783292874</v>
+        <v>33.58734783292734</v>
       </c>
       <c r="N9" t="n">
-        <v>34.4763049877937</v>
+        <v>34.47630498779225</v>
       </c>
       <c r="O9" t="n">
-        <v>31.53908357093449</v>
+        <v>31.53908357093317</v>
       </c>
       <c r="P9" t="n">
-        <v>25.31289510039903</v>
+        <v>25.31289510039797</v>
       </c>
       <c r="Q9" t="n">
-        <v>16.92100002301468</v>
+        <v>16.92100002301398</v>
       </c>
       <c r="R9" t="n">
-        <v>8.230266503772539</v>
+        <v>8.230266503772194</v>
       </c>
       <c r="S9" t="n">
-        <v>2.462219457719459</v>
+        <v>2.462219457719356</v>
       </c>
       <c r="T9" t="n">
-        <v>0.5343045293138569</v>
+        <v>0.5343045293138344</v>
       </c>
       <c r="U9" t="n">
-        <v>0.008720966202076016</v>
+        <v>0.00872096620207565</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31671,49 +31671,49 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.1111327496351981</v>
+        <v>0.1111327496351935</v>
       </c>
       <c r="H10" t="n">
-        <v>0.9880711740293078</v>
+        <v>0.9880711740292663</v>
       </c>
       <c r="I10" t="n">
-        <v>3.342064870847596</v>
+        <v>3.342064870847456</v>
       </c>
       <c r="J10" t="n">
-        <v>7.857085399208508</v>
+        <v>7.857085399208178</v>
       </c>
       <c r="K10" t="n">
-        <v>12.91160491216211</v>
+        <v>12.91160491216157</v>
       </c>
       <c r="L10" t="n">
-        <v>16.5224089775821</v>
+        <v>16.5224089775814</v>
       </c>
       <c r="M10" t="n">
-        <v>17.42056365417928</v>
+        <v>17.42056365417855</v>
       </c>
       <c r="N10" t="n">
-        <v>17.00634158735719</v>
+        <v>17.00634158735648</v>
       </c>
       <c r="O10" t="n">
-        <v>15.70810901207328</v>
+        <v>15.70810901207262</v>
       </c>
       <c r="P10" t="n">
-        <v>13.44100091951523</v>
+        <v>13.44100091951467</v>
       </c>
       <c r="Q10" t="n">
-        <v>9.30585233536191</v>
+        <v>9.30585233536152</v>
       </c>
       <c r="R10" t="n">
-        <v>4.996932542688089</v>
+        <v>4.99693254268788</v>
       </c>
       <c r="S10" t="n">
-        <v>1.936740736824316</v>
+        <v>1.936740736824235</v>
       </c>
       <c r="T10" t="n">
-        <v>0.4748399302594828</v>
+        <v>0.4748399302594629</v>
       </c>
       <c r="U10" t="n">
-        <v>0.006061786343738087</v>
+        <v>0.006061786343737833</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31987,43 +31987,43 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H14" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I14" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J14" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K14" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L14" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M14" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N14" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O14" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P14" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q14" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R14" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S14" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T14" t="n">
         <v>19.1778794245112</v>
@@ -32072,40 +32072,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I15" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J15" t="n">
-        <v>221.4611312026436</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K15" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L15" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138799</v>
       </c>
       <c r="M15" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N15" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O15" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P15" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q15" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R15" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S15" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T15" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U15" t="n">
         <v>0.1542136840462215</v>
@@ -32145,13 +32145,13 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H16" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I16" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J16" t="n">
         <v>138.937596729739</v>
@@ -32160,16 +32160,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L16" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M16" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N16" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O16" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P16" t="n">
         <v>237.6785118802169</v>
@@ -32178,16 +32178,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R16" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S16" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T16" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32461,43 +32461,43 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H20" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I20" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J20" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K20" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L20" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M20" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N20" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O20" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P20" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q20" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R20" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S20" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T20" t="n">
         <v>19.1778794245112</v>
@@ -32546,40 +32546,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I21" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J21" t="n">
-        <v>221.4611312026436</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K21" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L21" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M21" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N21" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O21" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P21" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q21" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R21" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S21" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T21" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U21" t="n">
         <v>0.1542136840462215</v>
@@ -32619,13 +32619,13 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H22" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I22" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J22" t="n">
         <v>138.937596729739</v>
@@ -32634,16 +32634,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L22" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M22" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N22" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O22" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P22" t="n">
         <v>237.6785118802169</v>
@@ -32652,16 +32652,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R22" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S22" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T22" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U22" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32698,43 +32698,43 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H23" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I23" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J23" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K23" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L23" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M23" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N23" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O23" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P23" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q23" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R23" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S23" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T23" t="n">
         <v>19.1778794245112</v>
@@ -32783,40 +32783,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I24" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J24" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K24" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L24" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M24" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N24" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O24" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P24" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q24" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R24" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S24" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T24" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U24" t="n">
         <v>0.1542136840462215</v>
@@ -32856,13 +32856,13 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H25" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I25" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J25" t="n">
         <v>138.937596729739</v>
@@ -32871,16 +32871,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L25" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M25" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N25" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O25" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P25" t="n">
         <v>237.6785118802169</v>
@@ -32889,16 +32889,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R25" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S25" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T25" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U25" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -33032,7 +33032,7 @@
         <v>508.9565619138795</v>
       </c>
       <c r="M27" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233481</v>
       </c>
       <c r="N27" t="n">
         <v>609.6478166837924</v>
@@ -33263,7 +33263,7 @@
         <v>221.4611312026437</v>
       </c>
       <c r="K30" t="n">
-        <v>378.5123470353163</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L30" t="n">
         <v>508.9565619138795</v>
@@ -33281,7 +33281,7 @@
         <v>447.6103584002926</v>
       </c>
       <c r="Q30" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987494</v>
       </c>
       <c r="R30" t="n">
         <v>145.5365940905541</v>
@@ -33409,43 +33409,43 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H32" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I32" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J32" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K32" t="n">
-        <v>557.2811376003809</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L32" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M32" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N32" t="n">
-        <v>781.7148990095022</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O32" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P32" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q32" t="n">
-        <v>473.0999946781689</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R32" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S32" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T32" t="n">
         <v>19.1778794245112</v>
@@ -33494,40 +33494,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I33" t="n">
-        <v>80.70516131752255</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J33" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K33" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L33" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M33" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N33" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O33" t="n">
-        <v>557.7086478970249</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P33" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q33" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R33" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S33" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T33" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U33" t="n">
         <v>0.1542136840462215</v>
@@ -33567,13 +33567,13 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H34" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I34" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J34" t="n">
         <v>138.937596729739</v>
@@ -33582,16 +33582,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L34" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M34" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N34" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O34" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P34" t="n">
         <v>237.6785118802169</v>
@@ -33600,16 +33600,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R34" t="n">
-        <v>88.36123870712214</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S34" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T34" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U34" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33740,7 +33740,7 @@
         <v>378.5123470353157</v>
       </c>
       <c r="L36" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138799</v>
       </c>
       <c r="M36" t="n">
         <v>593.9283018233474</v>
@@ -33755,7 +33755,7 @@
         <v>447.6103584002926</v>
       </c>
       <c r="Q36" t="n">
-        <v>299.2156706987494</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R36" t="n">
         <v>145.5365940905541</v>
@@ -33971,7 +33971,7 @@
         <v>80.70516131752255</v>
       </c>
       <c r="J39" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026441</v>
       </c>
       <c r="K39" t="n">
         <v>378.5123470353157</v>
@@ -33992,7 +33992,7 @@
         <v>447.6103584002926</v>
       </c>
       <c r="Q39" t="n">
-        <v>299.2156706987494</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R39" t="n">
         <v>145.5365940905541</v>
@@ -34211,13 +34211,13 @@
         <v>221.4611312026437</v>
       </c>
       <c r="K42" t="n">
-        <v>378.5123470353157</v>
+        <v>378.5123470353161</v>
       </c>
       <c r="L42" t="n">
         <v>508.9565619138795</v>
       </c>
       <c r="M42" t="n">
-        <v>593.9283018233479</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N42" t="n">
         <v>609.6478166837924</v>
@@ -34448,7 +34448,7 @@
         <v>221.4611312026437</v>
       </c>
       <c r="K45" t="n">
-        <v>378.5123470353161</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L45" t="n">
         <v>508.9565619138795</v>
@@ -35565,28 +35565,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>87.15534638599209</v>
+        <v>87.15534638599222</v>
       </c>
       <c r="K13" t="n">
-        <v>247.6245893172454</v>
+        <v>247.6245893172456</v>
       </c>
       <c r="L13" t="n">
-        <v>361.334301943124</v>
+        <v>361.3343019431241</v>
       </c>
       <c r="M13" t="n">
-        <v>389.2103091664097</v>
+        <v>389.2103091664098</v>
       </c>
       <c r="N13" t="n">
-        <v>386.433875940466</v>
+        <v>386.4338759404661</v>
       </c>
       <c r="O13" t="n">
-        <v>343.9300599955657</v>
+        <v>343.9300599955658</v>
       </c>
       <c r="P13" t="n">
-        <v>276.5340009180363</v>
+        <v>276.5340009180364</v>
       </c>
       <c r="Q13" t="n">
-        <v>119.9711683108195</v>
+        <v>119.9711683108196</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35644,31 +35644,31 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687125</v>
       </c>
       <c r="K14" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554004</v>
       </c>
       <c r="L14" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923319</v>
       </c>
       <c r="M14" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N14" t="n">
-        <v>552.3018354129115</v>
+        <v>552.3018354129113</v>
       </c>
       <c r="O14" t="n">
-        <v>508.0530008882191</v>
+        <v>508.053000888219</v>
       </c>
       <c r="P14" t="n">
-        <v>398.7619862193719</v>
+        <v>398.7619862193716</v>
       </c>
       <c r="Q14" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037194</v>
       </c>
       <c r="R14" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222472</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35723,28 +35723,28 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>94.62350453597692</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K15" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L15" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340057</v>
       </c>
       <c r="M15" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N15" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O15" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P15" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q15" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35802,7 +35802,7 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>87.15534638599215</v>
+        <v>87.15534638599219</v>
       </c>
       <c r="K16" t="n">
         <v>247.6245893172455</v>
@@ -35811,7 +35811,7 @@
         <v>361.334301943124</v>
       </c>
       <c r="M16" t="n">
-        <v>389.2103091664097</v>
+        <v>389.2103091664098</v>
       </c>
       <c r="N16" t="n">
         <v>386.433875940466</v>
@@ -35820,7 +35820,7 @@
         <v>343.9300599955657</v>
       </c>
       <c r="P16" t="n">
-        <v>276.5340009180363</v>
+        <v>276.5340009180364</v>
       </c>
       <c r="Q16" t="n">
         <v>119.9711683108196</v>
@@ -36051,7 +36051,7 @@
         <v>347.6333793934838</v>
       </c>
       <c r="N19" t="n">
-        <v>351.151658021643</v>
+        <v>344.8569461675401</v>
       </c>
       <c r="O19" t="n">
         <v>302.3531302226398</v>
@@ -36060,7 +36060,7 @@
         <v>234.9570711451104</v>
       </c>
       <c r="Q19" t="n">
-        <v>78.39423853789366</v>
+        <v>84.68895039199715</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36118,31 +36118,31 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687125</v>
       </c>
       <c r="K20" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554004</v>
       </c>
       <c r="L20" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923319</v>
       </c>
       <c r="M20" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N20" t="n">
-        <v>552.3018354129115</v>
+        <v>552.3018354129113</v>
       </c>
       <c r="O20" t="n">
-        <v>508.0530008882191</v>
+        <v>508.053000888219</v>
       </c>
       <c r="P20" t="n">
-        <v>398.7619862193719</v>
+        <v>398.7619862193716</v>
       </c>
       <c r="Q20" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037194</v>
       </c>
       <c r="R20" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222472</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36197,28 +36197,28 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>94.62350453597692</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K21" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L21" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M21" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N21" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O21" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P21" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q21" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36276,10 +36276,10 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>45.57841661306622</v>
+        <v>45.5784166130662</v>
       </c>
       <c r="K22" t="n">
-        <v>206.0476595443196</v>
+        <v>206.0476595443195</v>
       </c>
       <c r="L22" t="n">
         <v>319.7573721701981</v>
@@ -36291,13 +36291,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O22" t="n">
-        <v>302.3531302226398</v>
+        <v>308.6478420767437</v>
       </c>
       <c r="P22" t="n">
-        <v>241.2517829992135</v>
+        <v>234.9570711451104</v>
       </c>
       <c r="Q22" t="n">
-        <v>78.39423853789366</v>
+        <v>78.39423853789363</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36355,31 +36355,31 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>190.7870009687126</v>
+        <v>270.0189191987987</v>
       </c>
       <c r="K23" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554004</v>
       </c>
       <c r="L23" t="n">
-        <v>856.6207407939002</v>
+        <v>455.5901143923319</v>
       </c>
       <c r="M23" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N23" t="n">
-        <v>552.3018354129115</v>
+        <v>552.3018354129113</v>
       </c>
       <c r="O23" t="n">
-        <v>508.0530008882191</v>
+        <v>508.053000888219</v>
       </c>
       <c r="P23" t="n">
-        <v>398.7619862193719</v>
+        <v>720.5606943908542</v>
       </c>
       <c r="Q23" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037194</v>
       </c>
       <c r="R23" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222472</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36434,28 +36434,28 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K24" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L24" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M24" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N24" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O24" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P24" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q24" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36513,28 +36513,28 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>45.57841661306622</v>
+        <v>45.5784166130662</v>
       </c>
       <c r="K25" t="n">
-        <v>212.342371398423</v>
+        <v>206.0476595443195</v>
       </c>
       <c r="L25" t="n">
         <v>319.7573721701981</v>
       </c>
       <c r="M25" t="n">
-        <v>347.6333793934838</v>
+        <v>353.9280912475879</v>
       </c>
       <c r="N25" t="n">
         <v>344.8569461675401</v>
       </c>
       <c r="O25" t="n">
-        <v>302.3531302226398</v>
+        <v>302.3531302226397</v>
       </c>
       <c r="P25" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q25" t="n">
-        <v>78.39423853789366</v>
+        <v>78.39423853789363</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36592,13 +36592,13 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>190.7870009687125</v>
+        <v>359.8836161407863</v>
       </c>
       <c r="K26" t="n">
         <v>661.3366991265651</v>
       </c>
       <c r="L26" t="n">
-        <v>855.7934116805436</v>
+        <v>455.5901143923319</v>
       </c>
       <c r="M26" t="n">
         <v>538.9211158302265</v>
@@ -36607,7 +36607,7 @@
         <v>552.3018354129113</v>
       </c>
       <c r="O26" t="n">
-        <v>508.053000888219</v>
+        <v>673.4432631313749</v>
       </c>
       <c r="P26" t="n">
         <v>398.7619862193716</v>
@@ -36616,7 +36616,7 @@
         <v>250.7943048037194</v>
       </c>
       <c r="R26" t="n">
-        <v>59.61319854222472</v>
+        <v>125.3296184152072</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36680,7 +36680,7 @@
         <v>370.4021821340053</v>
       </c>
       <c r="M27" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013298</v>
       </c>
       <c r="N27" t="n">
         <v>478.3061046004591</v>
@@ -36750,7 +36750,7 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>92.55355323165881</v>
+        <v>92.55355323165877</v>
       </c>
       <c r="K28" t="n">
         <v>253.0227961629121</v>
@@ -36759,16 +36759,16 @@
         <v>366.7325087887907</v>
       </c>
       <c r="M28" t="n">
-        <v>394.6085160120764</v>
+        <v>394.6085160120763</v>
       </c>
       <c r="N28" t="n">
-        <v>391.8320827861327</v>
+        <v>391.8320827861326</v>
       </c>
       <c r="O28" t="n">
         <v>349.3282668412323</v>
       </c>
       <c r="P28" t="n">
-        <v>281.932207763703</v>
+        <v>281.9322077637029</v>
       </c>
       <c r="Q28" t="n">
         <v>125.3693751564862</v>
@@ -36829,16 +36829,16 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>190.7870009687125</v>
+        <v>359.8836161407863</v>
       </c>
       <c r="K29" t="n">
         <v>661.3366991265651</v>
       </c>
       <c r="L29" t="n">
-        <v>643.4784210206388</v>
+        <v>455.5901143923319</v>
       </c>
       <c r="M29" t="n">
-        <v>538.9211158302265</v>
+        <v>770.0277979463644</v>
       </c>
       <c r="N29" t="n">
         <v>552.3018354129113</v>
@@ -36850,7 +36850,7 @@
         <v>398.7619862193716</v>
       </c>
       <c r="Q29" t="n">
-        <v>463.1092954636241</v>
+        <v>250.7943048037194</v>
       </c>
       <c r="R29" t="n">
         <v>59.61319854222472</v>
@@ -36911,7 +36911,7 @@
         <v>94.62350453597705</v>
       </c>
       <c r="K30" t="n">
-        <v>240.6709080609573</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L30" t="n">
         <v>370.4021821340053</v>
@@ -36929,7 +36929,7 @@
         <v>313.6359509859624</v>
       </c>
       <c r="Q30" t="n">
-        <v>159.2338966127271</v>
+        <v>159.2338966127279</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -36987,13 +36987,13 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>92.55355323165878</v>
+        <v>92.55355323165875</v>
       </c>
       <c r="K31" t="n">
         <v>253.0227961629121</v>
       </c>
       <c r="L31" t="n">
-        <v>366.7325087887907</v>
+        <v>366.7325087887906</v>
       </c>
       <c r="M31" t="n">
         <v>394.6085160120763</v>
@@ -37066,31 +37066,31 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>190.7870009687125</v>
+        <v>359.8836161407863</v>
       </c>
       <c r="K32" t="n">
-        <v>337.1912865554004</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L32" t="n">
-        <v>858.1401160802257</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M32" t="n">
-        <v>538.9211158302265</v>
+        <v>647.6566093818003</v>
       </c>
       <c r="N32" t="n">
-        <v>552.3018354129113</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O32" t="n">
-        <v>508.053000888219</v>
+        <v>888.8531821509645</v>
       </c>
       <c r="P32" t="n">
-        <v>720.5606943908542</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q32" t="n">
-        <v>250.7943048037194</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R32" t="n">
-        <v>59.61319854222472</v>
+        <v>125.3296184152072</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37145,28 +37145,28 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>94.62350453597705</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K33" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L33" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M33" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N33" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O33" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P33" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q33" t="n">
-        <v>159.2338966127271</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37224,28 +37224,28 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>92.55355323165871</v>
+        <v>92.55355323165881</v>
       </c>
       <c r="K34" t="n">
-        <v>253.0227961629132</v>
+        <v>253.0227961629122</v>
       </c>
       <c r="L34" t="n">
-        <v>366.7325087887906</v>
+        <v>366.7325087887907</v>
       </c>
       <c r="M34" t="n">
-        <v>394.6085160120763</v>
+        <v>394.6085160120764</v>
       </c>
       <c r="N34" t="n">
-        <v>391.8320827861326</v>
+        <v>391.8320827861327</v>
       </c>
       <c r="O34" t="n">
-        <v>349.3282668412322</v>
+        <v>349.3282668412323</v>
       </c>
       <c r="P34" t="n">
-        <v>281.9322077637029</v>
+        <v>281.932207763703</v>
       </c>
       <c r="Q34" t="n">
-        <v>125.3693751564861</v>
+        <v>125.3693751564862</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37312,7 +37312,7 @@
         <v>455.5901143923319</v>
       </c>
       <c r="M35" t="n">
-        <v>538.9211158302282</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N35" t="n">
         <v>552.3018354129113</v>
@@ -37388,7 +37388,7 @@
         <v>240.6709080609567</v>
       </c>
       <c r="L36" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340057</v>
       </c>
       <c r="M36" t="n">
         <v>451.7942679013291</v>
@@ -37403,7 +37403,7 @@
         <v>313.6359509859624</v>
       </c>
       <c r="Q36" t="n">
-        <v>159.2338966127279</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37552,7 +37552,7 @@
         <v>538.9211158302265</v>
       </c>
       <c r="N38" t="n">
-        <v>552.3018354129113</v>
+        <v>552.3018354129119</v>
       </c>
       <c r="O38" t="n">
         <v>508.053000888219</v>
@@ -37619,7 +37619,7 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>94.62350453597705</v>
+        <v>94.62350453597743</v>
       </c>
       <c r="K39" t="n">
         <v>240.6709080609567</v>
@@ -37640,7 +37640,7 @@
         <v>313.6359509859624</v>
       </c>
       <c r="Q39" t="n">
-        <v>159.2338966127279</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37783,7 +37783,7 @@
         <v>337.1912865554004</v>
       </c>
       <c r="L41" t="n">
-        <v>455.5901143923326</v>
+        <v>455.5901143923319</v>
       </c>
       <c r="M41" t="n">
         <v>538.9211158302265</v>
@@ -37792,7 +37792,7 @@
         <v>552.3018354129113</v>
       </c>
       <c r="O41" t="n">
-        <v>508.053000888219</v>
+        <v>508.0530008882196</v>
       </c>
       <c r="P41" t="n">
         <v>398.7619862193716</v>
@@ -37859,13 +37859,13 @@
         <v>94.62350453597705</v>
       </c>
       <c r="K42" t="n">
-        <v>240.6709080609567</v>
+        <v>240.6709080609571</v>
       </c>
       <c r="L42" t="n">
         <v>370.4021821340053</v>
       </c>
       <c r="M42" t="n">
-        <v>451.7942679013295</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N42" t="n">
         <v>478.3061046004591</v>
@@ -38096,7 +38096,7 @@
         <v>94.62350453597705</v>
       </c>
       <c r="K45" t="n">
-        <v>240.6709080609571</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L45" t="n">
         <v>370.4021821340053</v>
